--- a/Texte/BE_Solarinitiative_texte.xlsx
+++ b/Texte/BE_Solarinitiative_texte.xlsx
@@ -1019,6 +1019,9 @@
     <t>Wiedlisbach BE</t>
   </si>
   <si>
+    <t>Intro_HauptvorlageNein_GegenvorschlagJa</t>
+  </si>
+  <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagNein</t>
   </si>
   <si>
@@ -1028,1990 +1031,1987 @@
     <t>Intro_HauptvorlageNein_GegenvorschlagNein</t>
   </si>
   <si>
-    <t>Intro_HauptvorlageNein_GegenvorschlagJa</t>
-  </si>
-  <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
   </si>
   <si>
-    <t>Mit 66,1 Prozent Ja hat sich Aarberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 81,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>80,4 Prozent der Stimmbürgerinnen und Stimmbürger von Bargen BE haben der Solarinitiative und 54,6 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 69 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>In Grossaffoltern wurden beide Vorlagen abgelehnt. Mit 51,6 Prozent wurde die Solarinitiative und mit 59,8 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Kallnach hat die Solarinitiative mit 91,7 Prozent abgelehnt und den Gegenvorschlag mit 65,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>In Kappelen wurden beide Vorlagen abgelehnt. Mit 73,5 Prozent wurde die Solarinitiative und mit 68,1 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Lyss hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 71,6 Prozent respektive 74,4 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 50,4 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Meikirch: 85,9 Prozent haben die Solarinitiative und 54,1 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Radelfingen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 52,3 respektive 87,5 Prozent.</t>
-  </si>
-  <si>
-    <t>Rapperswil BE hat die Solarinitiative mit 67,4 Prozent angenommen und den Gegenvorschlag mit 76 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>51,2 Prozent der Stimmbürgerinnen und Stimmbürger von Schüpfen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 67,5 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 82,5 Prozent Ja hat sich Seedorf BE für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 51,7 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 51,5 Prozent Ja hat sich Aarwangen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 53,5 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Auswil hat die Solarinitiative mit 57,5 Prozent abgelehnt und den Gegenvorschlag mit 64,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 81,9 Prozent Ja hat sich Bannwil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 75,2 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Bleienbach: 85,4 Prozent haben die Solarinitiative und 51,1 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>60,1 Prozent der Stimmbürgerinnen und Stimmbürger von Busswil bei Melchnau haben der Solarinitiative und 91,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 64,3 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Gondiswil hat die Solarinitiative mit 85,8 Prozent angenommen und den Gegenvorschlag mit 61,7 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>97,6 Prozent der Stimmbürgerinnen und Stimmbürger von Langenthal haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 74,7 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Lotzwil: 76,6 Prozent haben die Solarinitiative und 75,2 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>58,4 Prozent der Stimmbürgerinnen und Stimmbürger von Madiswil haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 70 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 51,1 Prozent Ja hat sich Melchnau für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 64,5 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 53,2 Prozent Ja hat sich Oeschenbach für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 53,4 abgelehnt.</t>
-  </si>
-  <si>
-    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Reisiswil haben der Solarinitiative und 66,7 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 84 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>73,1 Prozent der Stimmbürgerinnen und Stimmbürger von Roggwil BE haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 50,5 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 88,9 Prozent Ja hat sich Rohrbach für die Solarinitiative und mit 86,8 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 67,4 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 78,8 Prozent Ja hat sich Rohrbachgraben für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 65,4 Prozent ab.</t>
-  </si>
-  <si>
-    <t>66,6 Prozent der Stimmbürgerinnen und Stimmbürger von Rütschelen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 74,6 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Schwarzhäusern hat die Solarinitiative mit 73,9 Prozent angenommen und den Gegenvorschlag mit 86,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 58,2 Prozent Ja hat sich Thunstetten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 71,9 abgelehnt.</t>
-  </si>
-  <si>
-    <t>In Ursenbach wurden beide Vorlagen abgelehnt. Mit 59,7 Prozent wurde die Solarinitiative und mit 65,3 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Wynau hat die Solarinitiative mit 52,5 Prozent abgelehnt und den Gegenvorschlag mit 70,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>98 Prozent der Stimmbürgerinnen und Stimmbürger von Bern haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 63 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Bolligen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 64,6 Prozent respektive 94,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 58,1 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 72,3 Prozent Ja hat sich Bremgarten bei Bern für die Solarinitiative und mit 78,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 54,9 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Kirchlindach: 60,1 Prozent haben die Solarinitiative und 63,5 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Köniz hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 70,4 respektive 98,6 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 76,6 Prozent Ja hat sich Muri bei Bern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 67,5 abgelehnt.</t>
-  </si>
-  <si>
-    <t>67,3 Prozent der Stimmbürgerinnen und Stimmbürger von Oberbalm haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 66,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Stettlen: 52,4 Prozent haben die Solarinitiative und 61,4 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Vechigen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 90,4 respektive 54,9 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 92,2 Prozent Ja hat sich Wohlen bei Bern für die Solarinitiative und mit 99,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 71,3 Prozent durch.</t>
-  </si>
-  <si>
-    <t>89,8 Prozent der Stimmbürgerinnen und Stimmbürger von Zollikofen haben der Solarinitiative und 96,3 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 63,8 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>97,2 Prozent der Stimmbürgerinnen und Stimmbürger von Ittigen haben der Solarinitiative und 74,7 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 58 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Ostermundigen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 54,1 Prozent respektive 83,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 53,2 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 57,3 Prozent Ja hat sich Biel BE für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 76 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Leubringen hat die Solarinitiative mit 89,6 Prozent angenommen und den Gegenvorschlag mit 68,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Arch: 59,1 Prozent haben die Solarinitiative und 54,4 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>78,9 Prozent der Stimmbürgerinnen und Stimmbürger von Büetigen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 50,3 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Büren an der Aare hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 51,2 respektive 51,2 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 88,3 Prozent Ja hat sich Diessbach bei Büren für die Solarinitiative und mit 67 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 58,2 Prozent durch.</t>
-  </si>
-  <si>
-    <t>53 Prozent der Stimmbürgerinnen und Stimmbürger von Dotzigen haben der Solarinitiative und 87,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 80,3 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 83,8 Prozent Ja hat sich Lengnau BE für die Solarinitiative und mit 88,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 51,7 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Leuzigen hat die Solarinitiative mit 70,1 Prozent angenommen und den Gegenvorschlag mit 62 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Meinisberg hat die Solarinitiative mit 59,9 Prozent angenommen und den Gegenvorschlag mit 86,7 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Oberwil bei Büren hat die Solarinitiative mit 58,9 Prozent abgelehnt und den Gegenvorschlag mit 57,3 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Pieterlen hat die Solarinitiative mit 58,9 Prozent angenommen und den Gegenvorschlag mit 72,2 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 51,8 Prozent Ja hat sich Rüti bei Büren für die Solarinitiative und mit 58,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 67,1 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Wengi hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 83,6 respektive 60,7 Prozent.</t>
-  </si>
-  <si>
-    <t>51,5 Prozent der Stimmbürgerinnen und Stimmbürger von Aefligen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 53,3 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Alchenstorf hat die Solarinitiative mit 75,3 Prozent abgelehnt und den Gegenvorschlag mit 64,8 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Bäriswil: 82,8 Prozent haben die Solarinitiative und 91 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>51,4 Prozent der Stimmbürgerinnen und Stimmbürger von Burgdorf haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 56,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Ersigen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 97,9 respektive 62,3 Prozent.</t>
-  </si>
-  <si>
-    <t>54,3 Prozent der Stimmbürgerinnen und Stimmbürger von Hasle bei Burgdorf haben der Solarinitiative und 59,3 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 81,6 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>59,7 Prozent der Stimmbürgerinnen und Stimmbürger von Heimiswil haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 92,4 Prozent ab.</t>
-  </si>
-  <si>
-    <t>62,2 Prozent der Stimmbürgerinnen und Stimmbürger von Hindelbank haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 76,4 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 62,6 Prozent Ja hat sich Höchstetten für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 65 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 84,6 Prozent Ja hat sich Kernenried für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 58 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Kirchberg BE hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 54,2 respektive 79 Prozent.</t>
-  </si>
-  <si>
-    <t>65,8 Prozent der Stimmbürgerinnen und Stimmbürger von Koppigen haben der Solarinitiative und 69,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 50,4 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>54 Prozent der Stimmbürgerinnen und Stimmbürger von Krauchthal haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 57,1 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 73,8 Prozent Ja hat sich Lyssach für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 61,9 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 64,2 Prozent Ja hat sich Oberburg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 65,3 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Rüdtligen-Alchenflüh hat die Solarinitiative mit 72,2 Prozent angenommen und den Gegenvorschlag mit 69,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Rumendingen hat die Solarinitiative mit 56,3 Prozent angenommen und den Gegenvorschlag mit 61,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>81 Prozent der Stimmbürgerinnen und Stimmbürger von Rüti bei Lyssach haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 55,7 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 97,1 Prozent Ja hat sich Willadingen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 72,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>54,6 Prozent der Stimmbürgerinnen und Stimmbürger von Wynigen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 52,1 Pozent ab.</t>
-  </si>
-  <si>
-    <t>60,8 Prozent der Stimmbürgerinnen und Stimmbürger von Corgémont haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 90,4 Prozent ab.</t>
-  </si>
-  <si>
-    <t>85,9 Prozent der Stimmbürgerinnen und Stimmbürger von Cormoret haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 61,9 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 71,9 Prozent Ja hat sich Cortébert für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 50,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>In Courtelary wurden beide Vorlagen abgelehnt. Mit 79,3 Prozent wurde die Solarinitiative und mit 84,1 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 51,6 Prozent Ja hat sich La Ferrière für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 83 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 83 Prozent Ja hat sich Mont-Tramelan für die Solarinitiative und mit 50,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 66,7 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 84,1 Prozent Ja hat sich Orvin für die Solarinitiative und mit 96,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 70,3 Prozent durch.</t>
-  </si>
-  <si>
-    <t>69,7 Prozent der Stimmbürgerinnen und Stimmbürger von Renan BE haben der Solarinitiative und 53,6 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 86,6 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 81,8 Prozent Ja hat sich Romont BE für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 60,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>76,3 Prozent der Stimmbürgerinnen und Stimmbürger von St. Immer haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 84,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Sonceboz-Sombeval: 88,4 Prozent haben die Solarinitiative und 70,6 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 86,8 Prozent Ja hat sich Sonvilier für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 92,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Tramelan: 54,7 Prozent haben die Solarinitiative und 65,9 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Villeret hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 81,7 Prozent respektive 61,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 60,2 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>In Sauge wurden beide Vorlagen abgelehnt. Mit 54 Prozent wurde die Solarinitiative und mit 51,4 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 71,5 Prozent Ja hat sich Péry-La Heutte für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 99,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Brüttelen: 54,1 Prozent haben die Solarinitiative und 70,8 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 55,6 Prozent Ja hat sich Erlach für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 70,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Finsterhennen hat die Solarinitiative mit 60,7 Prozent abgelehnt und den Gegenvorschlag mit 64,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 69,8 Prozent Ja hat sich Gals für die Solarinitiative und mit 52,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 80 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 86,4 Prozent Ja hat sich Gampelen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 98,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Ins hat die Solarinitiative mit 53,2 Prozent abgelehnt und den Gegenvorschlag mit 62,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>56,1 Prozent der Stimmbürgerinnen und Stimmbürger von Lüscherz haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 54,7 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Müntschemier hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 56,2 respektive 71,3 Prozent.</t>
-  </si>
-  <si>
-    <t>In Siselen wurden beide Vorlagen abgelehnt. Mit 98,5 Prozent wurde die Solarinitiative und mit 91,3 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>89,9 Prozent der Stimmbürgerinnen und Stimmbürger von Treiten haben der Solarinitiative und 70,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 61,3 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 92,8 Prozent Ja hat sich Tschugg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 88,7 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 59 Prozent Ja hat sich Vinelz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 57,9 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Bätterkinden hat die Solarinitiative mit 100 Prozent abgelehnt und den Gegenvorschlag mit 50,2 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Fraubrunnen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 79,3 respektive 53,4 Prozent.</t>
-  </si>
-  <si>
-    <t>87,1 Prozent der Stimmbürgerinnen und Stimmbürger von Jegenstorf haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 62,8 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Iffwil hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 52,1 Prozent respektive 85,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 73,5 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>80,6 Prozent der Stimmbürgerinnen und Stimmbürger von Mattstetten haben der Solarinitiative und 61,3 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 90,1 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 96 Prozent Ja hat sich Moosseedorf für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 55 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Münchenbuchsee hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 86,1 Prozent respektive 73,8 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 69,8 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 56,4 Prozent Ja hat sich Urtenen-Schönbühl für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 83,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 50,6 Prozent Ja hat sich Utzenstorf für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 99,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>57,4 Prozent der Stimmbürgerinnen und Stimmbürger von Wiggiswil haben der Solarinitiative und 57,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 54,9 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Wiler bei Utzenstorf hat die Solarinitiative mit 79,4 Prozent angenommen und den Gegenvorschlag mit 51,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Zielebach: 53,3 Prozent haben die Solarinitiative und 84,6 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Zuzwil BE hat die Solarinitiative mit 53 Prozent abgelehnt und den Gegenvorschlag mit 57,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Adelboden hat die Solarinitiative mit 90,7 Prozent abgelehnt und den Gegenvorschlag mit 64 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Aeschi bei Spiez hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 67,1 respektive 65,6 Prozent.</t>
-  </si>
-  <si>
-    <t>72,2 Prozent der Stimmbürgerinnen und Stimmbürger von Frutigen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 85 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Kandergrund hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 75,6 Prozent respektive 76,4 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 81,1 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Kandersteg hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 50,2 Prozent respektive 85,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 52,7 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>65,1 Prozent der Stimmbürgerinnen und Stimmbürger von Krattigen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 69 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Reichenbach im Kandertal hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 50 Prozent respektive 75 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 60,2 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 52,8 Prozent Ja hat sich Beatenberg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,1 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Bönigen: 83,3 Prozent haben die Solarinitiative und 85,9 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 65,5 Prozent Ja hat sich Brienz BE für die Solarinitiative und mit 99,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 71,6 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Brienzwiler hat die Solarinitiative mit 65,1 Prozent abgelehnt und den Gegenvorschlag mit 76,9 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Därligen: 81,3 Prozent haben die Solarinitiative und 81,6 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 58,4 Prozent Ja hat sich Grindelwald für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 90,9 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Gsteigwiler hat die Solarinitiative mit 94,8 Prozent angenommen und den Gegenvorschlag mit 58,5 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Gündlischwand hat die Solarinitiative mit 68,4 Prozent angenommen und den Gegenvorschlag mit 58,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Habkern hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 89,7 respektive 63,7 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 54,8 Prozent Ja hat sich Hofstetten bei Brienz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 57,9 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Interlaken hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 54,1 respektive 52,2 Prozent.</t>
-  </si>
-  <si>
-    <t>98 Prozent der Stimmbürgerinnen und Stimmbürger von Iseltwald haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 58,5 Pozent ab.</t>
-  </si>
-  <si>
-    <t>56,1 Prozent der Stimmbürgerinnen und Stimmbürger von Lauterbrunnen haben der Solarinitiative und 54,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 54,1 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Leissigen hat die Solarinitiative mit 83,8 Prozent abgelehnt und den Gegenvorschlag mit 77,5 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 51,8 Prozent Ja hat sich Lütschental für die Solarinitiative und mit 52,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 69,2 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Matten bei Interlaken hat die Solarinitiative mit 77 Prozent abgelehnt und den Gegenvorschlag mit 89,7 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>72 Prozent der Stimmbürgerinnen und Stimmbürger von Niederried bei Interlaken haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 59,7 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 82,8 Prozent Ja hat sich Oberried am Brienzersee für die Solarinitiative und mit 76,8 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 53,5 Prozent durch.</t>
-  </si>
-  <si>
-    <t>In Ringgenberg BE wurden beide Vorlagen abgelehnt. Mit 56,7 Prozent wurde die Solarinitiative und mit 53,8 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 55,5 Prozent Ja hat sich Saxeten für die Solarinitiative und mit 62,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 69,5 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Schwanden bei Brienz: 85,8 Prozent haben die Solarinitiative und 68 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 54,3 Prozent Ja hat sich Unterseen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 50,5 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 63,2 Prozent Ja hat sich Wilderswil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 56 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Arni BE hat die Solarinitiative mit 81,3 Prozent angenommen und den Gegenvorschlag mit 99,7 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Biglen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 69,7 respektive 74,1 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 62,5 Prozent Ja hat sich Bowil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 85,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 93,5 Prozent Ja hat sich Brenzikofen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 75,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>53,9 Prozent der Stimmbürgerinnen und Stimmbürger von Freimettigen haben der Solarinitiative und 79,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 74,9 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 91,6 Prozent Ja hat sich Grosshöchstetten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 63,6 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 78,7 Prozent Ja hat sich Häutligen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 52,2 abgelehnt.</t>
-  </si>
-  <si>
-    <t>61,1 Prozent der Stimmbürgerinnen und Stimmbürger von Herbligen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 65,3 Pozent ab.</t>
-  </si>
-  <si>
-    <t>62,8 Prozent der Stimmbürgerinnen und Stimmbürger von Kiesen haben der Solarinitiative und 87,2 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 69,2 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Konolfingen: 81,4 Prozent haben die Solarinitiative und 78 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Landiswil hat die Solarinitiative mit 84,5 Prozent abgelehnt und den Gegenvorschlag mit 95 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Linden hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 81,8 Prozent respektive 53 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 52,6 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 77 Prozent Ja hat sich Mirchel für die Solarinitiative und mit 58,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 61,5 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 69,4 Prozent Ja hat sich Münsingen für die Solarinitiative und mit 89,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 78,6 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Niederhünigen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 57,1 Prozent respektive 56,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 68,4 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Oberdiessbach hat die Solarinitiative mit 58,2 Prozent angenommen und den Gegenvorschlag mit 63,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Oberthal hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 81,3 Prozent respektive 98 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 90,2 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>63,8 Prozent der Stimmbürgerinnen und Stimmbürger von Oppligen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 53,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>78,8 Prozent der Stimmbürgerinnen und Stimmbürger von Rubigen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 72,3 Pozent ab.</t>
-  </si>
-  <si>
-    <t>82,7 Prozent der Stimmbürgerinnen und Stimmbürger von Walkringen haben der Solarinitiative und 55,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 54,2 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Worb hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 76,1 Prozent respektive 98,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 71,9 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 72,4 Prozent Ja hat sich Zäziwil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 74 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 69,5 Prozent Ja hat sich Allmendingen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 75,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 71,9 Prozent Ja hat sich Wichtrach für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 90,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 52,2 Prozent Ja hat sich Ferenbalm für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 55,1 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 78,9 Prozent Ja hat sich Frauenkappelen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 50 Prozent ab.</t>
-  </si>
-  <si>
-    <t>84,9 Prozent der Stimmbürgerinnen und Stimmbürger von Gurbrü haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 60,1 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Kriechenwil: 92,9 Prozent haben die Solarinitiative und 67,7 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Laupen hat die Solarinitiative mit 78,8 Prozent angenommen und den Gegenvorschlag mit 60,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>In Mühleberg wurden beide Vorlagen abgelehnt. Mit 68 Prozent wurde die Solarinitiative und mit 85,2 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Münchenwiler hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 57,2 respektive 58,1 Prozent.</t>
-  </si>
-  <si>
-    <t>Neuenegg hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 78,9 respektive 53,7 Prozent.</t>
-  </si>
-  <si>
-    <t>Wileroltigen hat die Solarinitiative mit 57,3 Prozent abgelehnt und den Gegenvorschlag mit 79,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 71,4 Prozent Ja hat sich Belprahon für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 50,4 Prozent ab.</t>
-  </si>
-  <si>
-    <t>74,1 Prozent der Stimmbürgerinnen und Stimmbürger von Champoz haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 51,8 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Corcelles BE hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 59,4 Prozent respektive 72,1 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 72,7 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Court hat die Solarinitiative mit 68,9 Prozent abgelehnt und den Gegenvorschlag mit 89,7 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Crémines hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 65,3 respektive 69,9 Prozent.</t>
-  </si>
-  <si>
-    <t>66,3 Prozent der Stimmbürgerinnen und Stimmbürger von Eschert haben der Solarinitiative und 88,3 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 74,5 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Grandval hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 50,5 respektive 62,3 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 63,7 Prozent Ja hat sich Loveresse für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 72,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>79,3 Prozent der Stimmbürgerinnen und Stimmbürger von Moutier haben der Solarinitiative und 54,9 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 51,1 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Perrefitte hat die Solarinitiative mit 65,6 Prozent abgelehnt und den Gegenvorschlag mit 76,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>In Reconvilier wurden beide Vorlagen abgelehnt. Mit 70,7 Prozent wurde die Solarinitiative und mit 57,6 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Roches BE hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 72,5 Prozent respektive 65,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 91,9 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>72,4 Prozent der Stimmbürgerinnen und Stimmbürger von Saicourt haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 51,4 Pozent ab.</t>
-  </si>
-  <si>
-    <t>76 Prozent der Stimmbürgerinnen und Stimmbürger von Saules BE haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 71,3 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 80,9 Prozent Ja hat sich Schelten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,6 abgelehnt.</t>
-  </si>
-  <si>
-    <t>In Seehof wurden beide Vorlagen abgelehnt. Mit 51,7 Prozent wurde die Solarinitiative und mit 65,4 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 80,3 Prozent Ja hat sich Sorvilier für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 75,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 74,6 Prozent Ja hat sich Tavannes für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 52,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 91,9 Prozent Ja hat sich Rebévelier für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 76,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>54,1 Prozent der Stimmbürgerinnen und Stimmbürger von Petit-Val haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 97,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>In Valbirse wurden beide Vorlagen abgelehnt. Mit 62,1 Prozent wurde die Solarinitiative und mit 78,1 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 50,3 Prozent Ja hat sich Neuenstadt für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 55 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nods hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 94,7 respektive 83,7 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 84,7 Prozent Ja hat sich Plateau de Diesse für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 91,1 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 77,8 Prozent Ja hat sich Aegerten für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 98 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Bellmund hat die Solarinitiative mit 86,1 Prozent abgelehnt und den Gegenvorschlag mit 95,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>78,6 Prozent der Stimmbürgerinnen und Stimmbürger von Brügg haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 65,7 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 87,2 Prozent Ja hat sich Bühl für die Solarinitiative und mit 54 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 78,7 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Epsach hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 55,4 respektive 64 Prozent.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Hagneck: 85,9 Prozent haben die Solarinitiative und 87,7 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 73,4 Prozent Ja hat sich Hermrigen für die Solarinitiative und mit 62,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 70,2 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 67,9 Prozent Ja hat sich Jens für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 79,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Ipsach hat die Solarinitiative mit 65,2 Prozent abgelehnt und den Gegenvorschlag mit 88,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Ligerz hat die Solarinitiative mit 53,5 Prozent angenommen und den Gegenvorschlag mit 71 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Merzligen haben der Solarinitiative und 51,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 71,1 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 78,4 Prozent Ja hat sich Mörigen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nidau hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 56,9 Prozent respektive 81,8 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 62,3 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Orpund hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 59,5 respektive 80,2 Prozent.</t>
-  </si>
-  <si>
-    <t>51 Prozent der Stimmbürgerinnen und Stimmbürger von Port haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 57 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 54 Prozent Ja hat sich Safnern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 57 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 97 Prozent Ja hat sich Scheuren für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 73,3 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Schwadernau hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 69,8 respektive 67,6 Prozent.</t>
-  </si>
-  <si>
-    <t>71,4 Prozent der Stimmbürgerinnen und Stimmbürger von Studen BE haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 51,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Sutz-Lattrigen hat die Solarinitiative mit 87 Prozent angenommen und den Gegenvorschlag mit 60,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Täuffelen: 74,1 Prozent haben die Solarinitiative und 61,1 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 51,9 Prozent Ja hat sich Walperswil für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 61,4 Prozent ab.</t>
-  </si>
-  <si>
-    <t>68,9 Prozent der Stimmbürgerinnen und Stimmbürger von Worben haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 62 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 53,9 Prozent Ja hat sich Twann-Tüscherz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 66,4 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 51,9 Prozent Ja hat sich Därstetten für die Solarinitiative und mit 93,8 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 52,8 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Diemtigen hat die Solarinitiative mit 87,1 Prozent abgelehnt und den Gegenvorschlag mit 97,2 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Erlenbach im Simmental hat die Solarinitiative mit 55,3 Prozent abgelehnt und den Gegenvorschlag mit 77,9 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Oberwil im Simmental hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 82,8 respektive 80,4 Prozent.</t>
-  </si>
-  <si>
-    <t>71,6 Prozent der Stimmbürgerinnen und Stimmbürger von Reutigen haben der Solarinitiative und 76 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 74,8 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Spiez: 99,1 Prozent haben die Solarinitiative und 79 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>In Wimmis wurden beide Vorlagen abgelehnt. Mit 53,6 Prozent wurde die Solarinitiative und mit 58,3 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 51,3 Prozent Ja hat sich Stocken-Höfen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 60,5 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Guttannen hat die Solarinitiative mit 81,1 Prozent angenommen und den Gegenvorschlag mit 87,2 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 70 Prozent Ja hat sich Hasliberg für die Solarinitiative und mit 56,8 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 77,3 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 79,8 Prozent Ja hat sich Innertkirchen für die Solarinitiative und mit 83,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 84,7 Prozent durch.</t>
-  </si>
-  <si>
-    <t>58,2 Prozent der Stimmbürgerinnen und Stimmbürger von Meiringen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 53,4 Pozent ab.</t>
-  </si>
-  <si>
-    <t>90 Prozent der Stimmbürgerinnen und Stimmbürger von Schattenhalb haben der Solarinitiative und 88,2 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 53,2 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 97,4 Prozent Ja hat sich Boltigen für die Solarinitiative und mit 79,3 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 66,2 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Lenk hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 98,2 Prozent respektive 58,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 88,2 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 59,6 Prozent Ja hat sich St. Stephan für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 54,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>67,3 Prozent der Stimmbürgerinnen und Stimmbürger von Zweisimmen haben der Solarinitiative und 63,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 59 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Gsteig haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 63,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Lauenen hat die Solarinitiative mit 89,7 Prozent abgelehnt und den Gegenvorschlag mit 65,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 81,2 Prozent Ja hat sich Saanen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 71,9 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 87,6 Prozent Ja hat sich Guggisberg für die Solarinitiative und mit 50,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 71 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Rüschegg hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 83,7 respektive 52,9 Prozent.</t>
-  </si>
-  <si>
-    <t>Mit 56,5 Prozent Ja hat sich Schwarzenburg für die Solarinitiative und mit 80,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 66,4 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Belp hat die Solarinitiative mit 53,6 Prozent angenommen und den Gegenvorschlag mit 86,7 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Burgistein hat die Solarinitiative mit 78,5 Prozent abgelehnt und den Gegenvorschlag mit 56,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Gerzensee hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 70,4 Prozent respektive 53,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 75,5 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 96,5 Prozent Ja hat sich Gurzelen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 86,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Jaberg: 69,8 Prozent haben die Solarinitiative und 57,4 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Kaufdorf hat die Solarinitiative mit 56,5 Prozent abgelehnt und den Gegenvorschlag mit 53,2 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>57,1 Prozent der Stimmbürgerinnen und Stimmbürger von Kehrsatz haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 51,3 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Kirchdorf BE: 91,3 Prozent haben die Solarinitiative und 72,2 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 67,4 Prozent Ja hat sich Riggisberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 70,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Rüeggisberg hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 76,8 Prozent respektive 65,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 74 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 79,2 Prozent Ja hat sich Seftigen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 98,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Toffen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 54,3 Prozent respektive 97,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 84,8 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Uttigen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 52,3 respektive 57,8 Prozent.</t>
-  </si>
-  <si>
-    <t>Wattenwil hat die Solarinitiative mit 69,6 Prozent abgelehnt und den Gegenvorschlag mit 68,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Wald BE hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 55,2 respektive 59,7 Prozent.</t>
-  </si>
-  <si>
-    <t>Thurnen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 81,9 Prozent respektive 52,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 69,5 Prozent für den Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 99,1 Prozent Ja hat sich Eggiwil für die Solarinitiative und mit 72,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 56,5 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Mit 99,4 Prozent Ja hat sich Langnau im Emmental für die Solarinitiative und mit 73,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 53,3 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Lauperswil hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 68,6 respektive 62,2 Prozent.</t>
-  </si>
-  <si>
-    <t>Röthenbach im Emmental hat die Solarinitiative mit 57,5 Prozent abgelehnt und den Gegenvorschlag mit 66,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Rüderswil: 65,6 Prozent haben die Solarinitiative und 55 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>87,5 Prozent der Stimmbürgerinnen und Stimmbürger von Schangnau haben der Solarinitiative und 66,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 62,4 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>In Signau wurden beide Vorlagen abgelehnt. Mit 60,9 Prozent wurde die Solarinitiative und mit 52,5 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 68,9 Prozent Ja hat sich Trub für die Solarinitiative und mit 76,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 53,9 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Trubschachen: 93,5 Prozent haben die Solarinitiative und 92,1 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Amsoldingen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 72,4 respektive 86 Prozent.</t>
-  </si>
-  <si>
-    <t>In Blumenstein wurden beide Vorlagen abgelehnt. Mit 60,8 Prozent wurde die Solarinitiative und mit 51 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>55,3 Prozent der Stimmbürgerinnen und Stimmbürger von Buchholterberg haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 63,7 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Eriz: 60,3 Prozent haben die Solarinitiative und 83,3 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 66,2 Prozent Ja hat sich Fahrni für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 62,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>87,4 Prozent der Stimmbürgerinnen und Stimmbürger von Heiligenschwendi haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 50,2 Prozent ab.</t>
-  </si>
-  <si>
-    <t>In Heimberg wurden beide Vorlagen abgelehnt. Mit 73,5 Prozent wurde die Solarinitiative und mit 74,2 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Hilterfingen: 87,8 Prozent haben die Solarinitiative und 73,1 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Homberg: 70,1 Prozent haben die Solarinitiative und 54,6 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 55,1 Prozent Ja hat sich Horrenbach-Buchen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 95,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Oberhofen am Thunersee hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 74,1 respektive 74 Prozent.</t>
-  </si>
-  <si>
-    <t>69,4 Prozent der Stimmbürgerinnen und Stimmbürger von Oberlangenegg haben der Solarinitiative und 56,6 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 98,9 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 81,7 Prozent Ja hat sich Pohlern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 71,4 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Sigriswil hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 78,6 Prozent respektive 57,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 67,3 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 78,9 Prozent Ja hat sich Steffisburg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 52,4 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Teuffenthal BE hat die Solarinitiative mit 93,5 Prozent angenommen und den Gegenvorschlag mit 79,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Thierachern hat die Solarinitiative mit 50,2 Prozent abgelehnt und den Gegenvorschlag mit 53,3 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>56,2 Prozent der Stimmbürgerinnen und Stimmbürger von Thun haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 58,7 Pozent ab.</t>
-  </si>
-  <si>
-    <t>66,4 Prozent der Stimmbürgerinnen und Stimmbürger von Uebeschi haben der Solarinitiative und 78,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 83,7 Prozent der Gegenvorschlag.</t>
-  </si>
-  <si>
-    <t>Mit 80,4 Prozent Ja hat sich Uetendorf für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 60 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 79,9 Prozent Ja hat sich Unterlangenegg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 52,5 abgelehnt.</t>
-  </si>
-  <si>
-    <t>95,1 Prozent der Stimmbürgerinnen und Stimmbürger von Wachseldorn haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 62,6 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Forst-Längenbühl hat die Solarinitiative mit 61,3 Prozent angenommen und den Gegenvorschlag mit 60,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Affoltern im Emmental hat die Solarinitiative mit 63,2 Prozent angenommen und den Gegenvorschlag mit 56,8 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 68,1 Prozent Ja hat sich Dürrenroth für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 81,5 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Eriswil hat die Solarinitiative mit 99,7 Prozent abgelehnt und den Gegenvorschlag mit 60,1 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>In Huttwil wurden beide Vorlagen abgelehnt. Mit 65,9 Prozent wurde die Solarinitiative und mit 58,6 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>Lützelflüh hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 79,2 Prozent respektive 61 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 63 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 56 Prozent Ja hat sich Rüegsau für die Solarinitiative und mit 60 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 81,2 Prozent durch.</t>
-  </si>
-  <si>
-    <t>52,5 Prozent der Stimmbürgerinnen und Stimmbürger von Sumiswald haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 60,1 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 98,4 Prozent Ja hat sich Trachselwald für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 97,1 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 54,4 Prozent Ja hat sich Walterswil BE für die Solarinitiative und mit 61,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 50,4 Prozent durch.</t>
-  </si>
-  <si>
-    <t>51 Prozent der Stimmbürgerinnen und Stimmbürger von Wyssachen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 61,6 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 57,9 Prozent Ja hat sich Attiswil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 69,1 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 82,2 Prozent Ja hat sich Berken für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 55,3 abgelehnt.</t>
-  </si>
-  <si>
-    <t>67,9 Prozent der Stimmbürgerinnen und Stimmbürger von Bettenhausen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 89,8 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Mit 61,4 Prozent Ja hat sich Farnern für die Solarinitiative und mit 53,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 82,8 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Graben hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 87,2 respektive 67,9 Prozent.</t>
-  </si>
-  <si>
-    <t>Nein zur Initiative und zum Gegenvorschlag in Heimenhausen: 70,1 Prozent haben die Solarinitiative und 69,7 Prozent den Gegenvorschlag abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 74,3 Prozent Ja hat sich Herzogenbuchsee für die Solarinitiative und mit 50,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 89,4 Prozent durch.</t>
-  </si>
-  <si>
-    <t>Inkwil hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 61,4 respektive 88,7 Prozent.</t>
-  </si>
-  <si>
-    <t>Niederbipp hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 57,5 Prozent respektive 50,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 99,7 Prozent für die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 70,8 Prozent Ja hat sich Niederönz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 51,8 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Oberbipp hat die Solarinitiative mit 68,5 Prozent angenommen und den Gegenvorschlag mit 97,6 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Ochlenberg hat die Solarinitiative mit 52 Prozent angenommen und den Gegenvorschlag mit 72,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>98,6 Prozent der Stimmbürgerinnen und Stimmbürger von Rumisberg haben der Solarinitiative und 57,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 91,8 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>Mit 55,1 Prozent Ja hat sich Seeberg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,7 abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 67,9 Prozent Ja hat sich Thörigen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 50,1 Prozent ab.</t>
-  </si>
-  <si>
-    <t>Walliswil bei Niederbipp hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 94,6 respektive 64,5 Prozent.</t>
-  </si>
-  <si>
-    <t>In Walliswil bei Wangen wurden beide Vorlagen abgelehnt. Mit 61,4 Prozent wurde die Solarinitiative und mit 68,4 Prozent der Gegenvorschlag verworfen.</t>
-  </si>
-  <si>
-    <t>62,1 Prozent der Stimmbürgerinnen und Stimmbürger von Wangen an der Aare haben der Solarinitiative und 62,2 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 57,7 Prozent die Solarinitiative.</t>
-  </si>
-  <si>
-    <t>55,7 Prozent der Stimmbürgerinnen und Stimmbürger von Wiedlisbach haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 62,6 Pozent ab.</t>
-  </si>
-  <si>
-    <t>Avec 66,1 pour cent de oui, Aarberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 81,6 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>80,4 pour cent des citoyens de Bargen (BE) approuvent l’initiative solaire, et 54,6 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 69 pour cent.</t>
-  </si>
-  <si>
-    <t>À Grossaffoltern, les deux propositions sont rejetées. L’initiative solaire est refusée avec 51,6 pour cent et le contre-projet avec 59,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Kallnach rejette l’initiative solaire avec 91,7 pour cent et approuve le contre-projet avec 65,1 pour cent.</t>
-  </si>
-  <si>
-    <t>À Kappelen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 73,5 pour cent et le contre-projet avec 68,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Lyss accepte à la fois l’initiative solaire et le contre-projet avec 71,6 pour cent et 74,4 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 50,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Meikirch : 85,9 pour cent rejettent l’initiative solaire et 54,1 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Radelfingen rejette à la fois l’initiative solaire et le contre-projet, avec 52,3 et 87,5 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Rapperswil (BE) approuve l’initiative solaire avec 67,4 pour cent et rejette le contre-projet avec 76 pour cent.</t>
-  </si>
-  <si>
-    <t>51,2 pour cent des citoyens de Schüpfen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 67,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 82,5 pour cent de oui, Seedorf (BE) se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 51,7 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 51,5 pour cent de oui, Aarwangen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 53,5 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Auswil rejette l’initiative solaire avec 57,5 pour cent et approuve le contre-projet avec 64,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 81,9 pour cent de oui, Bannwil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 75,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Bleienbach : 85,4 pour cent rejettent l’initiative solaire et 51,1 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>60,1 pour cent des citoyens de Busswil bei Melchnau approuvent l’initiative solaire, et 91,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 64,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Gondiswil approuve l’initiative solaire avec 85,8 pour cent et rejette le contre-projet avec 61,7 pour cent.</t>
-  </si>
-  <si>
-    <t>97,6 pour cent des citoyens de Langenthal approuvent l’initiative solaire. Ils rejettent le contre-projet avec 74,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Lotzwil : 76,6 pour cent rejettent l’initiative solaire et 75,2 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>58,4 pour cent des citoyens de Madiswil approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 70 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,1 pour cent de oui, Melchnau se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 64,5 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 53,2 pour cent de oui, Oeschenbach se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 53,4 pour cent.</t>
-  </si>
-  <si>
-    <t>50,2 pour cent des citoyens de Reisiswil approuvent l’initiative solaire, et 66,7 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 84 pour cent.</t>
-  </si>
-  <si>
-    <t>73,1 pour cent des citoyens de Roggwil (BE) approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 50,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 88,9 pour cent de oui, Rohrbach se prononce en faveur de l’initiative solaire et, avec 86,8 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 67,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 78,8 pour cent de oui, Rohrbachgraben se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 65,4 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>66,6 pour cent des citoyens de Rütschelen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 74,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Schwarzhäusern approuve l’initiative solaire avec 73,9 pour cent et rejette le contre-projet avec 86,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 58,2 pour cent de oui, Thunstetten se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 71,9 pour cent.</t>
-  </si>
-  <si>
-    <t>À Ursenbach, les deux propositions sont rejetées. L’initiative solaire est refusée avec 59,7 pour cent et le contre-projet avec 65,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Wynau rejette l’initiative solaire avec 52,5 pour cent et approuve le contre-projet avec 70,1 pour cent.</t>
-  </si>
-  <si>
-    <t>98 pour cent des citoyens de Berne approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 63 pour cent.</t>
-  </si>
-  <si>
-    <t>Bolligen accepte à la fois l’initiative solaire et le contre-projet avec 64,6 pour cent et 94,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 58,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 72,3 pour cent de oui, Bremgarten bei Bern se prononce en faveur de l’initiative solaire et, avec 78,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 54,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Kirchlindach : 60,1 pour cent rejettent l’initiative solaire et 63,5 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Köniz rejette à la fois l’initiative solaire et le contre-projet, avec 70,4 et 98,6 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 76,6 pour cent de oui, Muri bei Bern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 67,5 pour cent.</t>
-  </si>
-  <si>
-    <t>67,3 pour cent des citoyens d'Oberbalm approuvent l’initiative solaire. Ils rejettent le contre-projet avec 66,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Stettlen : 52,4 pour cent rejettent l’initiative solaire et 61,4 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Vechigen rejette à la fois l’initiative solaire et le contre-projet, avec 90,4 et 54,9 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 92,2 pour cent de oui, Wohlen bei Bern se prononce en faveur de l’initiative solaire et, avec 99,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 71,3 pour cent.</t>
-  </si>
-  <si>
-    <t>89,8 pour cent des citoyens de Zollikofen approuvent l’initiative solaire, et 96,3 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 63,8 pour cent.</t>
-  </si>
-  <si>
-    <t>97,2 pour cent des citoyens d'Ittigen approuvent l’initiative solaire, et 74,7 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 58 pour cent.</t>
-  </si>
-  <si>
-    <t>Ostermundigen accepte à la fois l’initiative solaire et le contre-projet avec 54,1 pour cent et 83,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 53,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 57,3 pour cent de oui, Bienne se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 76 pour cent.</t>
-  </si>
-  <si>
-    <t>Evilard approuve l’initiative solaire avec 89,6 pour cent et rejette le contre-projet avec 68,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Arch : 59,1 pour cent rejettent l’initiative solaire et 54,4 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>78,9 pour cent des citoyens de Büetigen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 50,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Büren an der Aare rejette à la fois l’initiative solaire et le contre-projet, avec 51,2 et 51,2 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 88,3 pour cent de oui, Diessbach bei Büren se prononce en faveur de l’initiative solaire et, avec 67 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 58,2 pour cent.</t>
-  </si>
-  <si>
-    <t>53 pour cent des citoyens de Dotzigen approuvent l’initiative solaire, et 87,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 80,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 83,8 pour cent de oui, Longeau se prononce en faveur de l’initiative solaire et, avec 88,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 51,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Leuzigen approuve l’initiative solaire avec 70,1 pour cent et rejette le contre-projet avec 62 pour cent.</t>
-  </si>
-  <si>
-    <t>Meinisberg approuve l’initiative solaire avec 59,9 pour cent et rejette le contre-projet avec 86,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberwil bei Büren rejette l’initiative solaire avec 58,9 pour cent et approuve le contre-projet avec 57,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Perles approuve l’initiative solaire avec 58,9 pour cent et rejette le contre-projet avec 72,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,8 pour cent de oui, Rüti bei Büren se prononce en faveur de l’initiative solaire et, avec 58,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 67,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Wengi rejette à la fois l’initiative solaire et le contre-projet, avec 83,6 et 60,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>51,5 pour cent des citoyens d'Aefligen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 53,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Alchenstorf rejette l’initiative solaire avec 75,3 pour cent et approuve le contre-projet avec 64,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Bäriswil : 82,8 pour cent rejettent l’initiative solaire et 91 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>51,4 pour cent des citoyens de Berthoud approuvent l’initiative solaire. Ils rejettent le contre-projet avec 56,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Ersigen rejette à la fois l’initiative solaire et le contre-projet, avec 97,9 et 62,3 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>54,3 pour cent des citoyens de Hasle bei Burgdorf approuvent l’initiative solaire, et 59,3 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 81,6 pour cent.</t>
-  </si>
-  <si>
-    <t>59,7 pour cent des citoyens de Heimiswil approuvent l’initiative solaire. Ils rejettent le contre-projet avec 92,4 pour cent.</t>
-  </si>
-  <si>
-    <t>62,2 pour cent des citoyens de Hindelbank approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 76,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 62,6 pour cent de oui, Höchstetten se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 65 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 84,6 pour cent de oui, Kernenried se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 58 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Kirchberg (BE) rejette à la fois l’initiative solaire et le contre-projet, avec 54,2 et 79 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>65,8 pour cent des citoyens de Koppigen approuvent l’initiative solaire, et 69,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 50,4 pour cent.</t>
-  </si>
-  <si>
-    <t>54 pour cent des citoyens de Krauchthal approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 57,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 73,8 pour cent de oui, Lyssach se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 61,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 64,2 pour cent de oui, Oberburg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 65,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Rüdtligen-Alchenflüh approuve l’initiative solaire avec 72,2 pour cent et rejette le contre-projet avec 69,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Rumendingen approuve l’initiative solaire avec 56,3 pour cent et rejette le contre-projet avec 61,3 pour cent.</t>
-  </si>
-  <si>
-    <t>81 pour cent des citoyens de Rüti bei Lyssach approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 55,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 97,1 pour cent de oui, Willadingen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 72,9 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>54,6 pour cent des citoyens de Wynigen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 52,1 pour cent.</t>
-  </si>
-  <si>
-    <t>60,8 pour cent des citoyens de Corgémont approuvent l’initiative solaire. Ils rejettent le contre-projet avec 90,4 pour cent.</t>
-  </si>
-  <si>
-    <t>85,9 pour cent des citoyens de Cormoret approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 61,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 71,9 pour cent de oui, Cortébert se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 50,8 pour cent.</t>
-  </si>
-  <si>
-    <t>À Courtelary, les deux propositions sont rejetées. L’initiative solaire est refusée avec 79,3 pour cent et le contre-projet avec 84,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,6 pour cent de oui, La Ferrière se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 83 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 83 pour cent de oui, Mont-Tramelan se prononce en faveur de l’initiative solaire et, avec 50,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 66,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 84,1 pour cent de oui, Orvin se prononce en faveur de l’initiative solaire et, avec 96,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 70,3 pour cent.</t>
-  </si>
-  <si>
-    <t>69,7 pour cent des citoyens de Renan (BE) approuvent l’initiative solaire, et 53,6 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 86,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 81,8 pour cent de oui, Romont (BE) se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 60,8 pour cent.</t>
-  </si>
-  <si>
-    <t>76,3 pour cent des citoyens de Saint-Imier approuvent l’initiative solaire. Ils rejettent le contre-projet avec 84,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Sonceboz-Sombeval : 88,4 pour cent rejettent l’initiative solaire et 70,6 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 86,8 pour cent de oui, Sonvilier se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 92,9 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Tramelan : 54,7 pour cent rejettent l’initiative solaire et 65,9 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Villeret accepte à la fois l’initiative solaire et le contre-projet avec 81,7 pour cent et 61,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 60,2 pour cent.</t>
-  </si>
-  <si>
-    <t>À Sauge, les deux propositions sont rejetées. L’initiative solaire est refusée avec 54 pour cent et le contre-projet avec 51,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 71,5 pour cent de oui, Péry-La Heutte se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 99,2 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Brüttelen : 54,1 pour cent rejettent l’initiative solaire et 70,8 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 55,6 pour cent de oui, Cerlier se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 70,8 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Finsterhennen rejette l’initiative solaire avec 60,7 pour cent et approuve le contre-projet avec 64,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 69,8 pour cent de oui, Gals se prononce en faveur de l’initiative solaire et, avec 52,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 80 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 86,4 pour cent de oui, Champion (Gampelen) se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 98,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Anet rejette l’initiative solaire avec 53,2 pour cent et approuve le contre-projet avec 62,1 pour cent.</t>
-  </si>
-  <si>
-    <t>56,1 pour cent des citoyens de Lüscherz approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 54,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Müntschemier rejette à la fois l’initiative solaire et le contre-projet, avec 56,2 et 71,3 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>À Siselen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 98,5 pour cent et le contre-projet avec 91,3 pour cent.</t>
-  </si>
-  <si>
-    <t>89,9 pour cent des citoyens de Treiten approuvent l’initiative solaire, et 70,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 61,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 92,8 pour cent de oui, Tschugg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 88,7 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 59 pour cent de oui, Vinelz se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 57,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Bätterkinden rejette l’initiative solaire avec 100 pour cent et approuve le contre-projet avec 50,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Fraubrunnen rejette à la fois l’initiative solaire et le contre-projet, avec 79,3 et 53,4 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>87,1 pour cent des citoyens de Jegenstorf approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 62,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Iffwil accepte à la fois l’initiative solaire et le contre-projet avec 52,1 pour cent et 85,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 73,5 pour cent.</t>
-  </si>
-  <si>
-    <t>80,6 pour cent des citoyens de Mattstetten approuvent l’initiative solaire, et 61,3 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 90,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 96 pour cent de oui, Moosseedorf se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 55 pour cent.</t>
-  </si>
-  <si>
-    <t>Münchenbuchsee accepte à la fois l’initiative solaire et le contre-projet avec 86,1 pour cent et 73,8 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 69,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 56,4 pour cent de oui, Urtenen-Schönbühl se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 83,9 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 50,6 pour cent de oui, Utzenstorf se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 99,7 pour cent.</t>
-  </si>
-  <si>
-    <t>57,4 pour cent des citoyens de Wiggiswil approuvent l’initiative solaire, et 57,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 54,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Wiler bei Utzenstorf approuve l’initiative solaire avec 79,4 pour cent et rejette le contre-projet avec 51,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Zielebach : 53,3 pour cent rejettent l’initiative solaire et 84,6 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Zuzwil (BE) rejette l’initiative solaire avec 53 pour cent et approuve le contre-projet avec 57,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Adelboden rejette l’initiative solaire avec 90,7 pour cent et approuve le contre-projet avec 64 pour cent.</t>
-  </si>
-  <si>
-    <t>Aeschi bei Spiez rejette à la fois l’initiative solaire et le contre-projet, avec 67,1 et 65,6 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>72,2 pour cent des citoyens de Frutigen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 85 pour cent.</t>
-  </si>
-  <si>
-    <t>Kandergrund accepte à la fois l’initiative solaire et le contre-projet avec 75,6 pour cent et 76,4 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 81,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Kandersteg accepte à la fois l’initiative solaire et le contre-projet avec 50,2 pour cent et 85,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 52,7 pour cent.</t>
-  </si>
-  <si>
-    <t>65,1 pour cent des citoyens de Krattigen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 69 pour cent.</t>
-  </si>
-  <si>
-    <t>Reichenbach im Kandertal accepte à la fois l’initiative solaire et le contre-projet avec 50 pour cent et 75 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 60,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 52,8 pour cent de oui, Beatenberg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Bönigen : 83,3 pour cent rejettent l’initiative solaire et 85,9 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 65,5 pour cent de oui, Brienz (BE) se prononce en faveur de l’initiative solaire et, avec 99,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 71,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Brienzwiler rejette l’initiative solaire avec 65,1 pour cent et approuve le contre-projet avec 76,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Därligen : 81,3 pour cent rejettent l’initiative solaire et 81,6 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 58,4 pour cent de oui, Grindelwald se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 90,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Gsteigwiler approuve l’initiative solaire avec 94,8 pour cent et rejette le contre-projet avec 58,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Gündlischwand approuve l’initiative solaire avec 68,4 pour cent et rejette le contre-projet avec 58,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Habkern rejette à la fois l’initiative solaire et le contre-projet, avec 89,7 et 63,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 54,8 pour cent de oui, Hofstetten bei Brienz se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 57,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Interlaken rejette à la fois l’initiative solaire et le contre-projet, avec 54,1 et 52,2 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>98 pour cent des citoyens d'Iseltwald approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 58,5 pour cent.</t>
-  </si>
-  <si>
-    <t>56,1 pour cent des citoyens de Lauterbrunnen approuvent l’initiative solaire, et 54,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 54,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Leissigen rejette l’initiative solaire avec 83,8 pour cent et approuve le contre-projet avec 77,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,8 pour cent de oui, Lütschental se prononce en faveur de l’initiative solaire et, avec 52,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 69,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Matten bei Interlaken rejette l’initiative solaire avec 77 pour cent et approuve le contre-projet avec 89,7 pour cent.</t>
-  </si>
-  <si>
-    <t>72 pour cent des citoyens de Niederried bei Interlaken approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 59,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 82,8 pour cent de oui, Oberried am Brienzersee se prononce en faveur de l’initiative solaire et, avec 76,8 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 53,5 pour cent.</t>
-  </si>
-  <si>
-    <t>À Ringgenberg (BE), les deux propositions sont rejetées. L’initiative solaire est refusée avec 56,7 pour cent et le contre-projet avec 53,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 55,5 pour cent de oui, Saxeten se prononce en faveur de l’initiative solaire et, avec 62,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 69,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Schwanden bei Brienz : 85,8 pour cent rejettent l’initiative solaire et 68 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 54,3 pour cent de oui, Unterseen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 50,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 63,2 pour cent de oui, Wilderswil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 56 pour cent.</t>
-  </si>
-  <si>
-    <t>Arni (BE) approuve l’initiative solaire avec 81,3 pour cent et rejette le contre-projet avec 99,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Biglen rejette à la fois l’initiative solaire et le contre-projet, avec 69,7 et 74,1 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 62,5 pour cent de oui, Bowil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 85,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 93,5 pour cent de oui, Brenzikofen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 75,7 pour cent.</t>
-  </si>
-  <si>
-    <t>53,9 pour cent des citoyens de Freimettigen approuvent l’initiative solaire, et 79,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 74,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 91,6 pour cent de oui, Grosshöchstetten se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 63,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 78,7 pour cent de oui, Häutligen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 52,2 pour cent.</t>
-  </si>
-  <si>
-    <t>61,1 pour cent des citoyens de Herbligen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 65,3 pour cent.</t>
-  </si>
-  <si>
-    <t>62,8 pour cent des citoyens de Kiesen approuvent l’initiative solaire, et 87,2 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 69,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Konolfingen : 81,4 pour cent rejettent l’initiative solaire et 78 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Landiswil rejette l’initiative solaire avec 84,5 pour cent et approuve le contre-projet avec 95 pour cent.</t>
-  </si>
-  <si>
-    <t>Linden accepte à la fois l’initiative solaire et le contre-projet avec 81,8 pour cent et 53 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 52,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 77 pour cent de oui, Mirchel se prononce en faveur de l’initiative solaire et, avec 58,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 61,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 69,4 pour cent de oui, Münsingen se prononce en faveur de l’initiative solaire et, avec 89,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 78,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Niederhünigen accepte à la fois l’initiative solaire et le contre-projet avec 57,1 pour cent et 56,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 68,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberdiessbach approuve l’initiative solaire avec 58,2 pour cent et rejette le contre-projet avec 63,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberthal accepte à la fois l’initiative solaire et le contre-projet avec 81,3 pour cent et 98 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 90,2 pour cent.</t>
-  </si>
-  <si>
-    <t>63,8 pour cent des citoyens d'Oppligen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 53,2 pour cent.</t>
-  </si>
-  <si>
-    <t>78,8 pour cent des citoyens de Rubigen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 72,3 pour cent.</t>
-  </si>
-  <si>
-    <t>82,7 pour cent des citoyens de Walkringen approuvent l’initiative solaire, et 55,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 54,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Worb accepte à la fois l’initiative solaire et le contre-projet avec 76,1 pour cent et 98,7 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 71,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 72,4 pour cent de oui, Zäziwil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 74 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 69,5 pour cent de oui, Allmendingen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 75,6 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 71,9 pour cent de oui, Wichtrach se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 90,8 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 52,2 pour cent de oui, Ferenbalm se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 55,1 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 78,9 pour cent de oui, Frauenkappelen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 50 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>84,9 pour cent des citoyens de Gurbrü approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 60,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Kriechenwil : 92,9 pour cent rejettent l’initiative solaire et 67,7 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Laupen approuve l’initiative solaire avec 78,8 pour cent et rejette le contre-projet avec 60,9 pour cent.</t>
-  </si>
-  <si>
-    <t>À Mühleberg, les deux propositions sont rejetées. L’initiative solaire est refusée avec 68 pour cent et le contre-projet avec 85,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Villars-les-Moines rejette à la fois l’initiative solaire et le contre-projet, avec 57,2 et 58,1 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Neuenegg rejette à la fois l’initiative solaire et le contre-projet, avec 78,9 et 53,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Wileroltigen rejette l’initiative solaire avec 57,3 pour cent et approuve le contre-projet avec 79,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 71,4 pour cent de oui, Belprahon se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 50,4 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>74,1 pour cent des citoyens de Champoz approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 51,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Corcelles (BE) accepte à la fois l’initiative solaire et le contre-projet avec 59,4 pour cent et 72,1 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 72,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Court rejette l’initiative solaire avec 68,9 pour cent et approuve le contre-projet avec 89,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Crémines rejette à la fois l’initiative solaire et le contre-projet, avec 65,3 et 69,9 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>66,3 pour cent des citoyens d'Eschert approuvent l’initiative solaire, et 88,3 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 74,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Grandval rejette à la fois l’initiative solaire et le contre-projet, avec 50,5 et 62,3 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 63,7 pour cent de oui, Loveresse se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 72,6 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>79,3 pour cent des citoyens de Moutier approuvent l’initiative solaire, et 54,9 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 51,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Perrefitte rejette l’initiative solaire avec 65,6 pour cent et approuve le contre-projet avec 76,4 pour cent.</t>
-  </si>
-  <si>
-    <t>À Reconvilier, les deux propositions sont rejetées. L’initiative solaire est refusée avec 70,7 pour cent et le contre-projet avec 57,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Roches (BE) accepte à la fois l’initiative solaire et le contre-projet avec 72,5 pour cent et 65,6 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 91,9 pour cent.</t>
-  </si>
-  <si>
-    <t>72,4 pour cent des citoyens de Saicourt approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 51,4 pour cent.</t>
-  </si>
-  <si>
-    <t>76 pour cent des citoyens de Saules (BE) approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 71,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 80,9 pour cent de oui, La Scheulte se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,6 pour cent.</t>
-  </si>
-  <si>
-    <t>À Seehof, les deux propositions sont rejetées. L’initiative solaire est refusée avec 51,7 pour cent et le contre-projet avec 65,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 80,3 pour cent de oui, Sorvilier se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 75,2 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 74,6 pour cent de oui, Tavannes se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 52,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 91,9 pour cent de oui, Rebévelier se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 76,8 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>54,1 pour cent des citoyens de Petit-Val approuvent l’initiative solaire. Ils rejettent le contre-projet avec 97,2 pour cent.</t>
-  </si>
-  <si>
-    <t>À Valbirse, les deux propositions sont rejetées. L’initiative solaire est refusée avec 62,1 pour cent et le contre-projet avec 78,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 50,3 pour cent de oui, La Neuveville se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 55 pour cent.</t>
-  </si>
-  <si>
-    <t>Nods rejette à la fois l’initiative solaire et le contre-projet, avec 94,7 et 83,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 84,7 pour cent de oui, Plateau de Diesse se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 91,1 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 77,8 pour cent de oui, Aegerten se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 98 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Bellmund rejette l’initiative solaire avec 86,1 pour cent et approuve le contre-projet avec 95,4 pour cent.</t>
-  </si>
-  <si>
-    <t>78,6 pour cent des citoyens de Brügg approuvent l’initiative solaire. Ils rejettent le contre-projet avec 65,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 87,2 pour cent de oui, Bühl se prononce en faveur de l’initiative solaire et, avec 54 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 78,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Epsach rejette à la fois l’initiative solaire et le contre-projet, avec 55,4 et 64 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Hagneck : 85,9 pour cent rejettent l’initiative solaire et 87,7 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 73,4 pour cent de oui, Hermrigen se prononce en faveur de l’initiative solaire et, avec 62,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 70,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 67,9 pour cent de oui, Jens se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 79,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Ipsach rejette l’initiative solaire avec 65,2 pour cent et approuve le contre-projet avec 88,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Gléresse approuve l’initiative solaire avec 53,5 pour cent et rejette le contre-projet avec 71 pour cent.</t>
-  </si>
-  <si>
-    <t>50,2 pour cent des citoyens de Merzligen approuvent l’initiative solaire, et 51,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 71,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 78,4 pour cent de oui, Mörigen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Nidau accepte à la fois l’initiative solaire et le contre-projet avec 56,9 pour cent et 81,8 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 62,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Orpund rejette à la fois l’initiative solaire et le contre-projet, avec 59,5 et 80,2 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>51 pour cent des citoyens de Port approuvent l’initiative solaire. Ils rejettent le contre-projet avec 57 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 54 pour cent de oui, Safnern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 57 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 97 pour cent de oui, Scheuren se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 73,3 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Schwadernau rejette à la fois l’initiative solaire et le contre-projet, avec 69,8 et 67,6 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>71,4 pour cent des citoyens de Studen (BE) approuvent l’initiative solaire. Ils rejettent le contre-projet avec 51,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Sutz-Lattrigen approuve l’initiative solaire avec 87 pour cent et rejette le contre-projet avec 60,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Täuffelen : 74,1 pour cent rejettent l’initiative solaire et 61,1 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 51,9 pour cent de oui, Walperswil se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 61,4 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>68,9 pour cent des citoyens de Worben approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 62 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 53,9 pour cent de oui, Douanne-Daucher se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 66,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,9 pour cent de oui, Därstetten se prononce en faveur de l’initiative solaire et, avec 93,8 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 52,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Diemtigen rejette l’initiative solaire avec 87,1 pour cent et approuve le contre-projet avec 97,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Erlenbach im Simmental rejette l’initiative solaire avec 55,3 pour cent et approuve le contre-projet avec 77,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberwil im Simmental rejette à la fois l’initiative solaire et le contre-projet, avec 82,8 et 80,4 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>71,6 pour cent des citoyens de Reutigen approuvent l’initiative solaire, et 76 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 74,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Spiez : 99,1 pour cent rejettent l’initiative solaire et 79 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>À Wimmis, les deux propositions sont rejetées. L’initiative solaire est refusée avec 53,6 pour cent et le contre-projet avec 58,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 51,3 pour cent de oui, Stocken-Höfen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 60,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Guttannen approuve l’initiative solaire avec 81,1 pour cent et rejette le contre-projet avec 87,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 70 pour cent de oui, Hasliberg se prononce en faveur de l’initiative solaire et, avec 56,8 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 77,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 79,8 pour cent de oui, Innertkirchen se prononce en faveur de l’initiative solaire et, avec 83,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 84,7 pour cent.</t>
-  </si>
-  <si>
-    <t>58,2 pour cent des citoyens de Meiringen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 53,4 pour cent.</t>
-  </si>
-  <si>
-    <t>90 pour cent des citoyens de Schattenhalb approuvent l’initiative solaire, et 88,2 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 53,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 97,4 pour cent de oui, Boltigen se prononce en faveur de l’initiative solaire et, avec 79,3 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 66,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Lenk accepte à la fois l’initiative solaire et le contre-projet avec 98,2 pour cent et 58,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 88,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 59,6 pour cent de oui, Saint-Etienne se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 54,2 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>67,3 pour cent des citoyens de Zweisimmen approuvent l’initiative solaire, et 63,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 59 pour cent.</t>
-  </si>
-  <si>
-    <t>50,2 pour cent des citoyens de Gsteig approuvent l’initiative solaire. Ils rejettent le contre-projet avec 63,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Lauenen rejette l’initiative solaire avec 89,7 pour cent et approuve le contre-projet avec 65,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 81,2 pour cent de oui, Gessenay se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 71,9 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Avec 87,6 pour cent de oui, Guggisberg se prononce en faveur de l’initiative solaire et, avec 50,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 71 pour cent.</t>
-  </si>
-  <si>
-    <t>Rüschegg rejette à la fois l’initiative solaire et le contre-projet, avec 83,7 et 52,9 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Avec 56,5 pour cent de oui, Schwarzenburg se prononce en faveur de l’initiative solaire et, avec 80,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 66,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Belp approuve l’initiative solaire avec 53,6 pour cent et rejette le contre-projet avec 86,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Burgistein rejette l’initiative solaire avec 78,5 pour cent et approuve le contre-projet avec 56,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Gerzensee accepte à la fois l’initiative solaire et le contre-projet avec 70,4 pour cent et 53,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 75,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 96,5 pour cent de oui, Gurzelen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 86,2 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Jaberg : 69,8 pour cent rejettent l’initiative solaire et 57,4 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Kaufdorf rejette l’initiative solaire avec 56,5 pour cent et approuve le contre-projet avec 53,2 pour cent.</t>
-  </si>
-  <si>
-    <t>57,1 pour cent des citoyens de Kehrsatz approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 51,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Kirchdorf (BE) : 91,3 pour cent rejettent l’initiative solaire et 72,2 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 67,4 pour cent de oui, Riggisberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 70,6 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Rüeggisberg accepte à la fois l’initiative solaire et le contre-projet avec 76,8 pour cent et 65,6 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 74 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 79,2 pour cent de oui, Seftigen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 98,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Toffen accepte à la fois l’initiative solaire et le contre-projet avec 54,3 pour cent et 97,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 84,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Uttigen rejette à la fois l’initiative solaire et le contre-projet, avec 52,3 et 57,8 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Wattenwil rejette l’initiative solaire avec 69,6 pour cent et approuve le contre-projet avec 68,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Wald (BE) rejette à la fois l’initiative solaire et le contre-projet, avec 55,2 et 59,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Thurnen accepte à la fois l’initiative solaire et le contre-projet avec 81,9 pour cent et 52,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 69,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 99,1 pour cent de oui, Eggiwil se prononce en faveur de l’initiative solaire et, avec 72,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 56,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 99,4 pour cent de oui, Langnau im Emmental se prononce en faveur de l’initiative solaire et, avec 73,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 53,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Lauperswil rejette à la fois l’initiative solaire et le contre-projet, avec 68,6 et 62,2 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Röthenbach im Emmental rejette l’initiative solaire avec 57,5 pour cent et approuve le contre-projet avec 66,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Rüderswil : 65,6 pour cent rejettent l’initiative solaire et 55 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>87,5 pour cent des citoyens de Schangnau approuvent l’initiative solaire, et 66,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 62,4 pour cent.</t>
-  </si>
-  <si>
-    <t>À Signau, les deux propositions sont rejetées. L’initiative solaire est refusée avec 60,9 pour cent et le contre-projet avec 52,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 68,9 pour cent de oui, Trub se prononce en faveur de l’initiative solaire et, avec 76,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 53,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Trubschachen : 93,5 pour cent rejettent l’initiative solaire et 92,1 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Amsoldingen rejette à la fois l’initiative solaire et le contre-projet, avec 72,4 et 86 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>À Blumenstein, les deux propositions sont rejetées. L’initiative solaire est refusée avec 60,8 pour cent et le contre-projet avec 51 pour cent.</t>
-  </si>
-  <si>
-    <t>55,3 pour cent des citoyens de Buchholterberg approuvent l’initiative solaire. Ils rejettent le contre-projet avec 63,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Eriz : 60,3 pour cent rejettent l’initiative solaire et 83,3 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 66,2 pour cent de oui, Fahrni se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 62,7 pour cent.</t>
-  </si>
-  <si>
-    <t>87,4 pour cent des citoyens de Heiligenschwendi approuvent l’initiative solaire. Ils rejettent le contre-projet avec 50,2 pour cent.</t>
-  </si>
-  <si>
-    <t>À Heimberg, les deux propositions sont rejetées. L’initiative solaire est refusée avec 73,5 pour cent et le contre-projet avec 74,2 pour cent.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Hilterfingen : 87,8 pour cent rejettent l’initiative solaire et 73,1 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Homberg : 70,1 pour cent rejettent l’initiative solaire et 54,6 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 55,1 pour cent de oui, Horrenbach-Buchen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 95,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberhofen am Thunersee rejette à la fois l’initiative solaire et le contre-projet, avec 74,1 et 74 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>69,4 pour cent des citoyens d'Oberlangenegg approuvent l’initiative solaire, et 56,6 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 98,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 81,7 pour cent de oui, Pohlern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 71,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Sigriswil accepte à la fois l’initiative solaire et le contre-projet avec 78,6 pour cent et 57,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 67,3 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 78,9 pour cent de oui, Steffisburg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 52,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Teuffenthal (BE) approuve l’initiative solaire avec 93,5 pour cent et rejette le contre-projet avec 79,9 pour cent.</t>
-  </si>
-  <si>
-    <t>Thierachern rejette l’initiative solaire avec 50,2 pour cent et approuve le contre-projet avec 53,3 pour cent.</t>
-  </si>
-  <si>
-    <t>56,2 pour cent des citoyens de Thoune approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 58,7 pour cent.</t>
-  </si>
-  <si>
-    <t>66,4 pour cent des citoyens d'Uebeschi approuvent l’initiative solaire, et 78,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 83,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 80,4 pour cent de oui, Uetendorf se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 60 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 79,9 pour cent de oui, Unterlangenegg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 52,5 pour cent.</t>
-  </si>
-  <si>
-    <t>95,1 pour cent des citoyens de Wachseldorn approuvent l’initiative solaire. Ils rejettent le contre-projet avec 62,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Forst-Längenbühl approuve l’initiative solaire avec 61,3 pour cent et rejette le contre-projet avec 60,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Affoltern im Emmental approuve l’initiative solaire avec 63,2 pour cent et rejette le contre-projet avec 56,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 68,1 pour cent de oui, Dürrenroth se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 81,5 pour cent.</t>
-  </si>
-  <si>
-    <t>Eriswil rejette l’initiative solaire avec 99,7 pour cent et approuve le contre-projet avec 60,1 pour cent.</t>
-  </si>
-  <si>
-    <t>À Huttwil, les deux propositions sont rejetées. L’initiative solaire est refusée avec 65,9 pour cent et le contre-projet avec 58,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Lützelflüh accepte à la fois l’initiative solaire et le contre-projet avec 79,2 pour cent et 61 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 63 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 56 pour cent de oui, Rüegsau se prononce en faveur de l’initiative solaire et, avec 60 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 81,2 pour cent.</t>
-  </si>
-  <si>
-    <t>52,5 pour cent des citoyens de Sumiswald approuvent l’initiative solaire. Ils rejettent le contre-projet avec 60,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 98,4 pour cent de oui, Trachselwald se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 97,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 54,4 pour cent de oui, Walterswil (BE) se prononce en faveur de l’initiative solaire et, avec 61,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 50,4 pour cent.</t>
-  </si>
-  <si>
-    <t>51 pour cent des citoyens de Wyssachen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 61,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 57,9 pour cent de oui, Attiswil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 69,1 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 82,2 pour cent de oui, Berken se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 55,3 pour cent.</t>
-  </si>
-  <si>
-    <t>67,9 pour cent des citoyens de Bettenhausen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 89,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 61,4 pour cent de oui, Farnern se prononce en faveur de l’initiative solaire et, avec 53,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 82,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Graben rejette à la fois l’initiative solaire et le contre-projet, avec 87,2 et 67,9 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Non à l’initiative et au contre-projet à Heimenhausen : 70,1 pour cent rejettent l’initiative solaire et 69,7 pour cent rejettent le contre-projet.</t>
-  </si>
-  <si>
-    <t>Avec 74,3 pour cent de oui, Herzogenbuchsee se prononce en faveur de l’initiative solaire et, avec 50,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 89,4 pour cent.</t>
-  </si>
-  <si>
-    <t>Inkwil rejette à la fois l’initiative solaire et le contre-projet, avec 61,4 et 88,7 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>Niederbipp accepte à la fois l’initiative solaire et le contre-projet avec 57,5 pour cent et 50,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 99,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 70,8 pour cent de oui, Niederönz se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 51,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Oberbipp approuve l’initiative solaire avec 68,5 pour cent et rejette le contre-projet avec 97,6 pour cent.</t>
-  </si>
-  <si>
-    <t>Ochlenberg approuve l’initiative solaire avec 52 pour cent et rejette le contre-projet avec 72,3 pour cent.</t>
-  </si>
-  <si>
-    <t>98,6 pour cent des citoyens de Rumisberg approuvent l’initiative solaire, et 57,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 91,8 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 55,1 pour cent de oui, Seeberg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,7 pour cent.</t>
-  </si>
-  <si>
-    <t>Avec 67,9 pour cent de oui, Thörigen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 50,1 pour cent des électeurs.</t>
-  </si>
-  <si>
-    <t>Walliswil bei Niederbipp rejette à la fois l’initiative solaire et le contre-projet, avec 94,6 et 64,5 pour cent respectivement.</t>
-  </si>
-  <si>
-    <t>À Walliswil bei Wangen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 61,4 pour cent et le contre-projet avec 68,4 pour cent.</t>
-  </si>
-  <si>
-    <t>62,1 pour cent des citoyens de Wangen an der Aare approuvent l’initiative solaire, et 62,2 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 57,7 pour cent.</t>
-  </si>
-  <si>
-    <t>55,7 pour cent des citoyens de Wiedlisbach approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 62,6 pour cent.</t>
+    <t>Mit 95,2 Prozent Ja hat sich Aarberg für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 70,1 abgelehnt.</t>
+  </si>
+  <si>
+    <t>74,1 Prozent der Stimmbürgerinnen und Stimmbürger von Bargen BE haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 62 Prozent ab.</t>
+  </si>
+  <si>
+    <t>52,4 Prozent der Stimmbürgerinnen und Stimmbürger von Grossaffoltern haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 73,6 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Kallnach hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 76,7 Prozent respektive 73,4 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 62,9 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>98,3 Prozent der Stimmbürgerinnen und Stimmbürger von Kappelen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 52,3 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Lyss hat die Solarinitiative mit 97,8 Prozent angenommen und den Gegenvorschlag mit 60,9 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Meikirch: 50,3 Prozent haben die Solarinitiative und 68,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Radelfingen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 79,7 Prozent respektive 83,5 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 50,7 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Rapperswil BE hat die Solarinitiative mit 57,1 Prozent abgelehnt und den Gegenvorschlag mit 63,4 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>56,6 Prozent der Stimmbürgerinnen und Stimmbürger von Schüpfen haben der Solarinitiative und 96,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 58,4 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 87,7 Prozent Ja hat sich Seedorf BE für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 62 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 85,5 Prozent Ja hat sich Aarwangen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 60 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Auswil hat die Solarinitiative mit 55,3 Prozent abgelehnt und den Gegenvorschlag mit 96,7 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Mit 54,4 Prozent Ja hat sich Bannwil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 80,3 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 76,7 Prozent Ja hat sich Bleienbach für die Solarinitiative und mit 80,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 91,9 Prozent durch.</t>
+  </si>
+  <si>
+    <t>93,4 Prozent der Stimmbürgerinnen und Stimmbürger von Busswil bei Melchnau haben der Solarinitiative und 74,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 95,8 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Gondiswil hat die Solarinitiative mit 77,1 Prozent abgelehnt und den Gegenvorschlag mit 83,1 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>73,7 Prozent der Stimmbürgerinnen und Stimmbürger von Langenthal haben der Solarinitiative und 64,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 55,4 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 97,9 Prozent Ja hat sich Lotzwil für die Solarinitiative und mit 51,4 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 62,4 Prozent durch.</t>
+  </si>
+  <si>
+    <t>67 Prozent der Stimmbürgerinnen und Stimmbürger von Madiswil haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 69 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 82,5 Prozent Ja hat sich Melchnau für die Solarinitiative und mit 71,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 62,4 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 75,6 Prozent Ja hat sich Oeschenbach für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 54,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>In Reisiswil wurden beide Vorlagen abgelehnt. Mit 61,9 Prozent wurde die Solarinitiative und mit 50,5 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>In Roggwil BE wurden beide Vorlagen abgelehnt. Mit 50,6 Prozent wurde die Solarinitiative und mit 50,1 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Rohrbach: 61,4 Prozent haben die Solarinitiative und 88,4 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 74,1 Prozent Ja hat sich Rohrbachgraben für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 62,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>64,3 Prozent der Stimmbürgerinnen und Stimmbürger von Rütschelen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 91,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Schwarzhäusern hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 66 respektive 56 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 52,1 Prozent Ja hat sich Thunstetten für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 74 Prozent ab.</t>
+  </si>
+  <si>
+    <t>58,2 Prozent der Stimmbürgerinnen und Stimmbürger von Ursenbach haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 88,8 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Wynau hat die Solarinitiative mit 83,9 Prozent abgelehnt und den Gegenvorschlag mit 85,5 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>88,7 Prozent der Stimmbürgerinnen und Stimmbürger von Bern haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 58 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Bolligen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 56,5 Prozent respektive 71,1 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 67,1 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 68,2 Prozent Ja hat sich Bremgarten bei Bern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 82,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 66,7 Prozent Ja hat sich Kirchlindach für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 85,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Köniz hat die Solarinitiative mit 84,6 Prozent angenommen und den Gegenvorschlag mit 55,8 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 76 Prozent Ja hat sich Muri bei Bern für die Solarinitiative und mit 51,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 64,6 Prozent durch.</t>
+  </si>
+  <si>
+    <t>87,6 Prozent der Stimmbürgerinnen und Stimmbürger von Oberbalm haben der Solarinitiative und 90,2 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 75,6 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 52,6 Prozent Ja hat sich Stettlen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 82 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Vechigen hat die Solarinitiative mit 62,5 Prozent angenommen und den Gegenvorschlag mit 78,8 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 66,5 Prozent Ja hat sich Wohlen bei Bern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 96 abgelehnt.</t>
+  </si>
+  <si>
+    <t>90,8 Prozent der Stimmbürgerinnen und Stimmbürger von Zollikofen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 67,3 Prozent ab.</t>
+  </si>
+  <si>
+    <t>76,5 Prozent der Stimmbürgerinnen und Stimmbürger von Ittigen haben der Solarinitiative und 51,7 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 62,8 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Ostermundigen hat die Solarinitiative mit 70 Prozent angenommen und den Gegenvorschlag mit 55,8 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Biel BE: 57,4 Prozent haben die Solarinitiative und 73,3 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Leubringen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 54,7 Prozent respektive 53,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 51,1 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 55,6 Prozent Ja hat sich Arch für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 90,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>50,3 Prozent der Stimmbürgerinnen und Stimmbürger von Büetigen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 94,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Büren an der Aare hat die Solarinitiative mit 68,6 Prozent abgelehnt und den Gegenvorschlag mit 93,8 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Diessbach bei Büren: 67,6 Prozent haben die Solarinitiative und 97,3 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>57 Prozent der Stimmbürgerinnen und Stimmbürger von Dotzigen haben der Solarinitiative und 70,5 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 72,2 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 85,1 Prozent Ja hat sich Lengnau BE für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 84,8 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Leuzigen hat die Solarinitiative mit 87,4 Prozent angenommen und den Gegenvorschlag mit 85,6 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Meinisberg hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 54 respektive 68,2 Prozent.</t>
+  </si>
+  <si>
+    <t>Oberwil bei Büren hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 55,1 Prozent respektive 50,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 73,5 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Pieterlen hat die Solarinitiative mit 56,9 Prozent abgelehnt und den Gegenvorschlag mit 89,1 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Mit 86,4 Prozent Ja hat sich Rüti bei Büren für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 53,8 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Wengi hat die Solarinitiative mit 71,2 Prozent abgelehnt und den Gegenvorschlag mit 81,5 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>53,4 Prozent der Stimmbürgerinnen und Stimmbürger von Aefligen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 61,4 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Alchenstorf hat die Solarinitiative mit 52,2 Prozent angenommen und den Gegenvorschlag mit 58,3 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 88,3 Prozent Ja hat sich Bäriswil für die Solarinitiative und mit 69,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 56,1 Prozent durch.</t>
+  </si>
+  <si>
+    <t>In Burgdorf wurden beide Vorlagen abgelehnt. Mit 85,7 Prozent wurde die Solarinitiative und mit 63,6 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Ersigen hat die Solarinitiative mit 50,8 Prozent abgelehnt und den Gegenvorschlag mit 65,1 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>79,4 Prozent der Stimmbürgerinnen und Stimmbürger von Hasle bei Burgdorf haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 70,3 Pozent ab.</t>
+  </si>
+  <si>
+    <t>69,1 Prozent der Stimmbürgerinnen und Stimmbürger von Heimiswil haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 60,9 Pozent ab.</t>
+  </si>
+  <si>
+    <t>97,1 Prozent der Stimmbürgerinnen und Stimmbürger von Hindelbank haben der Solarinitiative und 64,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 72,2 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 90 Prozent Ja hat sich Höchstetten für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 78,3 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 88,4 Prozent Ja hat sich Kernenried für die Solarinitiative und mit 77,8 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 60,5 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Kirchberg BE hat die Solarinitiative mit 89,7 Prozent abgelehnt und den Gegenvorschlag mit 62,1 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>In Koppigen wurden beide Vorlagen abgelehnt. Mit 62,6 Prozent wurde die Solarinitiative und mit 91,6 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>75,6 Prozent der Stimmbürgerinnen und Stimmbürger von Krauchthal haben der Solarinitiative und 54,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 61,2 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 74,7 Prozent Ja hat sich Lyssach für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 78,5 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Oberburg: 77,5 Prozent haben die Solarinitiative und 50,8 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Rüdtligen-Alchenflüh hat die Solarinitiative mit 54,3 Prozent angenommen und den Gegenvorschlag mit 85,1 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Rumendingen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 58,2 respektive 68,5 Prozent.</t>
+  </si>
+  <si>
+    <t>66,4 Prozent der Stimmbürgerinnen und Stimmbürger von Rüti bei Lyssach haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 53,3 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 63,9 Prozent Ja hat sich Willadingen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 51,7 abgelehnt.</t>
+  </si>
+  <si>
+    <t>73,7 Prozent der Stimmbürgerinnen und Stimmbürger von Wynigen haben der Solarinitiative und 85,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 91,4 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>50,9 Prozent der Stimmbürgerinnen und Stimmbürger von Corgémont haben der Solarinitiative und 81,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 59,5 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>53,8 Prozent der Stimmbürgerinnen und Stimmbürger von Cormoret haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 69 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 61,6 Prozent Ja hat sich Cortébert für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 72,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>In Courtelary wurden beide Vorlagen abgelehnt. Mit 54,3 Prozent wurde die Solarinitiative und mit 72,9 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 74,5 Prozent Ja hat sich La Ferrière für die Solarinitiative und mit 61,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 73,8 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 94,1 Prozent Ja hat sich Mont-Tramelan für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 71 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 96,1 Prozent Ja hat sich Orvin für die Solarinitiative und mit 67,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 70,7 Prozent durch.</t>
+  </si>
+  <si>
+    <t>70,7 Prozent der Stimmbürgerinnen und Stimmbürger von Renan BE haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 97,3 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 52,6 Prozent Ja hat sich Romont BE für die Solarinitiative und mit 96,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 80,4 Prozent durch.</t>
+  </si>
+  <si>
+    <t>50,5 Prozent der Stimmbürgerinnen und Stimmbürger von St. Immer haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 76,1 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 52,5 Prozent Ja hat sich Sonceboz-Sombeval für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 64,6 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Sonvilier: 59,7 Prozent haben die Solarinitiative und 63,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Tramelan: 67,5 Prozent haben die Solarinitiative und 67,3 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Villeret hat die Solarinitiative mit 61,7 Prozent angenommen und den Gegenvorschlag mit 72,3 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>In Sauge wurden beide Vorlagen abgelehnt. Mit 55,1 Prozent wurde die Solarinitiative und mit 63,3 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 74,4 Prozent Ja hat sich Péry-La Heutte für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 77,3 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 68,3 Prozent Ja hat sich Brüttelen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,7 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 90,7 Prozent Ja hat sich Erlach für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 64,7 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Finsterhennen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 57,1 respektive 82,3 Prozent.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Gals: 59,6 Prozent haben die Solarinitiative und 69,6 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 60,3 Prozent Ja hat sich Gampelen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 65,8 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Ins hat die Solarinitiative mit 65,7 Prozent abgelehnt und den Gegenvorschlag mit 58,2 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>84,5 Prozent der Stimmbürgerinnen und Stimmbürger von Lüscherz haben der Solarinitiative und 59,9 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 80,3 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Müntschemier hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 63,1 Prozent respektive 70,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 56,4 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>In Siselen wurden beide Vorlagen abgelehnt. Mit 56,1 Prozent wurde die Solarinitiative und mit 68,1 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>84,2 Prozent der Stimmbürgerinnen und Stimmbürger von Treiten haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 74 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 90,9 Prozent Ja hat sich Tschugg für die Solarinitiative und mit 54,4 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 57,1 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 71,1 Prozent Ja hat sich Vinelz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 73,6 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Bätterkinden hat die Solarinitiative mit 66,4 Prozent abgelehnt und den Gegenvorschlag mit 56,3 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Fraubrunnen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 52,1 respektive 65,8 Prozent.</t>
+  </si>
+  <si>
+    <t>54,7 Prozent der Stimmbürgerinnen und Stimmbürger von Jegenstorf haben der Solarinitiative und 63,3 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 51,8 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Iffwil hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 50,4 Prozent respektive 72,6 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 74,7 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>59,8 Prozent der Stimmbürgerinnen und Stimmbürger von Mattstetten haben der Solarinitiative und 52,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 51,1 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 68,7 Prozent Ja hat sich Moosseedorf für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 75,9 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Münchenbuchsee hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 94,3 respektive 52,1 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 76,9 Prozent Ja hat sich Urtenen-Schönbühl für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 52,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 80,9 Prozent Ja hat sich Utzenstorf für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 53,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>61,1 Prozent der Stimmbürgerinnen und Stimmbürger von Wiggiswil haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 63,7 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Wiler bei Utzenstorf hat die Solarinitiative mit 68,4 Prozent angenommen und den Gegenvorschlag mit 51,2 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 53,6 Prozent Ja hat sich Zielebach für die Solarinitiative und mit 92,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 50,5 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Zuzwil BE hat die Solarinitiative mit 52 Prozent abgelehnt und den Gegenvorschlag mit 50,7 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Adelboden hat die Solarinitiative mit 79,3 Prozent abgelehnt und den Gegenvorschlag mit 57,8 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Aeschi bei Spiez hat die Solarinitiative mit 67,2 Prozent abgelehnt und den Gegenvorschlag mit 52 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>In Frutigen wurden beide Vorlagen abgelehnt. Mit 93 Prozent wurde die Solarinitiative und mit 82,2 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Kandergrund hat die Solarinitiative mit 76,3 Prozent abgelehnt und den Gegenvorschlag mit 57,4 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Kandersteg hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 68,1 Prozent respektive 62,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 88,4 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>60,2 Prozent der Stimmbürgerinnen und Stimmbürger von Krattigen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 55,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Reichenbach im Kandertal hat die Solarinitiative mit 70,6 Prozent abgelehnt und den Gegenvorschlag mit 62,7 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Beatenberg: 93,1 Prozent haben die Solarinitiative und 73,8 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 81,3 Prozent Ja hat sich Bönigen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 52,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Brienz BE: 83,4 Prozent haben die Solarinitiative und 62,7 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Brienzwiler hat die Solarinitiative mit 65,9 Prozent angenommen und den Gegenvorschlag mit 83,2 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 83,9 Prozent Ja hat sich Därligen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 66 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Grindelwald: 73 Prozent haben die Solarinitiative und 69,4 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Gsteigwiler hat die Solarinitiative mit 75,6 Prozent abgelehnt und den Gegenvorschlag mit 62,3 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Gündlischwand hat die Solarinitiative mit 84,9 Prozent abgelehnt und den Gegenvorschlag mit 80,9 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Habkern hat die Solarinitiative mit 61,2 Prozent abgelehnt und den Gegenvorschlag mit 57 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Hofstetten bei Brienz: 78,9 Prozent haben die Solarinitiative und 52 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Interlaken hat die Solarinitiative mit 56,6 Prozent angenommen und den Gegenvorschlag mit 91,8 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>62,5 Prozent der Stimmbürgerinnen und Stimmbürger von Iseltwald haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 76,5 Pozent ab.</t>
+  </si>
+  <si>
+    <t>62,6 Prozent der Stimmbürgerinnen und Stimmbürger von Lauterbrunnen haben der Solarinitiative und 63 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 57,9 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Leissigen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 70,3 Prozent respektive 90,2 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 63 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 59,5 Prozent Ja hat sich Lütschental für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 99,3 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Matten bei Interlaken hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 53,5 respektive 67,5 Prozent.</t>
+  </si>
+  <si>
+    <t>64,4 Prozent der Stimmbürgerinnen und Stimmbürger von Niederried bei Interlaken haben der Solarinitiative und 99,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 60,8 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 77,7 Prozent Ja hat sich Oberried am Brienzersee für die Solarinitiative und mit 72,6 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 92,5 Prozent durch.</t>
+  </si>
+  <si>
+    <t>75,8 Prozent der Stimmbürgerinnen und Stimmbürger von Ringgenberg BE haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 80,1 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 62,5 Prozent Ja hat sich Saxeten für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 50,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 86,3 Prozent Ja hat sich Schwanden bei Brienz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 50,9 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 70,9 Prozent Ja hat sich Unterseen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 54,8 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Wilderswil: 58,7 Prozent haben die Solarinitiative und 72,9 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Arni BE hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 93,8 Prozent respektive 65,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 66,2 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Biglen hat die Solarinitiative mit 68,7 Prozent abgelehnt und den Gegenvorschlag mit 51,9 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Mit 72 Prozent Ja hat sich Bowil für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 50,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 54,6 Prozent Ja hat sich Brenzikofen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 92,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>90,3 Prozent der Stimmbürgerinnen und Stimmbürger von Freimettigen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 95,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 54,1 Prozent Ja hat sich Grosshöchstetten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 84,5 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 56,5 Prozent Ja hat sich Häutligen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 54,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>In Herbligen wurden beide Vorlagen abgelehnt. Mit 95,6 Prozent wurde die Solarinitiative und mit 66,6 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>54,8 Prozent der Stimmbürgerinnen und Stimmbürger von Kiesen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 53,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 52,3 Prozent Ja hat sich Konolfingen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 53,9 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Landiswil hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 96,6 respektive 73,5 Prozent.</t>
+  </si>
+  <si>
+    <t>Linden hat die Solarinitiative mit 71,2 Prozent angenommen und den Gegenvorschlag mit 87,1 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Mirchel: 53 Prozent haben die Solarinitiative und 76,7 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 56,6 Prozent Ja hat sich Münsingen für die Solarinitiative und mit 53,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 58,3 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Niederhünigen hat die Solarinitiative mit 74,5 Prozent abgelehnt und den Gegenvorschlag mit 64,5 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Oberdiessbach hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 51,4 Prozent respektive 70,4 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 77,5 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Oberthal hat die Solarinitiative mit 65,7 Prozent abgelehnt und den Gegenvorschlag mit 60,2 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Oppligen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 84 Pozent ab.</t>
+  </si>
+  <si>
+    <t>68,9 Prozent der Stimmbürgerinnen und Stimmbürger von Rubigen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 84,8 Pozent ab.</t>
+  </si>
+  <si>
+    <t>59,2 Prozent der Stimmbürgerinnen und Stimmbürger von Walkringen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 70,5 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Worb hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 68,5 respektive 53,5 Prozent.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Zäziwil: 52,7 Prozent haben die Solarinitiative und 79,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 56,4 Prozent Ja hat sich Allmendingen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 79,5 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Wichtrach: 53,5 Prozent haben die Solarinitiative und 59,4 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 70,7 Prozent Ja hat sich Ferenbalm für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 65 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 76,9 Prozent Ja hat sich Frauenkappelen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 66 abgelehnt.</t>
+  </si>
+  <si>
+    <t>In Gurbrü wurden beide Vorlagen abgelehnt. Mit 89,5 Prozent wurde die Solarinitiative und mit 68,4 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 63,8 Prozent Ja hat sich Kriechenwil für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 61,6 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Laupen hat die Solarinitiative mit 80,9 Prozent angenommen und den Gegenvorschlag mit 95,5 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>In Mühleberg wurden beide Vorlagen abgelehnt. Mit 59,9 Prozent wurde die Solarinitiative und mit 98,8 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Münchenwiler hat die Solarinitiative mit 56,7 Prozent abgelehnt und den Gegenvorschlag mit 55,1 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Neuenegg hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 84,7 respektive 64,5 Prozent.</t>
+  </si>
+  <si>
+    <t>Wileroltigen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 75,5 respektive 57,9 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 54,2 Prozent Ja hat sich Belprahon für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 95,3 abgelehnt.</t>
+  </si>
+  <si>
+    <t>81,8 Prozent der Stimmbürgerinnen und Stimmbürger von Champoz haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 64,2 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Corcelles BE hat die Solarinitiative mit 55 Prozent abgelehnt und den Gegenvorschlag mit 50,3 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Court hat die Solarinitiative mit 55,9 Prozent angenommen und den Gegenvorschlag mit 77,6 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Crémines hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 70,8 respektive 52,3 Prozent.</t>
+  </si>
+  <si>
+    <t>61,9 Prozent der Stimmbürgerinnen und Stimmbürger von Eschert haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 50,6 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Grandval hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 56,3 respektive 65,6 Prozent.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Loveresse: 57,3 Prozent haben die Solarinitiative und 56,2 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>56,4 Prozent der Stimmbürgerinnen und Stimmbürger von Moutier haben der Solarinitiative und 91,7 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 58 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Perrefitte hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 67,1 Prozent respektive 66,8 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 63,4 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>In Reconvilier wurden beide Vorlagen abgelehnt. Mit 55,7 Prozent wurde die Solarinitiative und mit 68,3 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Roches BE hat die Solarinitiative mit 80,7 Prozent angenommen und den Gegenvorschlag mit 52,1 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>In Saicourt wurden beide Vorlagen abgelehnt. Mit 90 Prozent wurde die Solarinitiative und mit 86,7 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>71,6 Prozent der Stimmbürgerinnen und Stimmbürger von Saules BE haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 67,7 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 98,8 Prozent Ja hat sich Schelten für die Solarinitiative und mit 64 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 95 Prozent durch.</t>
+  </si>
+  <si>
+    <t>In Seehof wurden beide Vorlagen abgelehnt. Mit 63,7 Prozent wurde die Solarinitiative und mit 81,2 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 94,3 Prozent Ja hat sich Sorvilier für die Solarinitiative und mit 96 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 58,9 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 56,1 Prozent Ja hat sich Tavannes für die Solarinitiative und mit 89,9 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 77,4 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 67 Prozent Ja hat sich Rebévelier für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 98,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>51,3 Prozent der Stimmbürgerinnen und Stimmbürger von Petit-Val haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 68 Pozent ab.</t>
+  </si>
+  <si>
+    <t>58,2 Prozent der Stimmbürgerinnen und Stimmbürger von Valbirse haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 57,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 51,5 Prozent Ja hat sich Neuenstadt für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 83,3 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nods hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 53,5 respektive 94,4 Prozent.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Plateau de Diesse: 73,9 Prozent haben die Solarinitiative und 59,9 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 61,6 Prozent Ja hat sich Aegerten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 73,7 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Bellmund hat die Solarinitiative mit 81,8 Prozent abgelehnt und den Gegenvorschlag mit 60,6 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>73,2 Prozent der Stimmbürgerinnen und Stimmbürger von Brügg haben der Solarinitiative und 67,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 82 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 70,8 Prozent Ja hat sich Bühl für die Solarinitiative und mit 54,5 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 50,8 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Epsach hat die Solarinitiative mit 81,1 Prozent abgelehnt und den Gegenvorschlag mit 55 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Mit 88,2 Prozent Ja hat sich Hagneck für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 63,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 62,5 Prozent Ja hat sich Hermrigen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 59,8 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 69,5 Prozent Ja hat sich Jens für die Solarinitiative und mit 63 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 63,7 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Ipsach hat die Solarinitiative mit 57,5 Prozent abgelehnt und den Gegenvorschlag mit 57,5 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Ligerz hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 65,6 respektive 71,4 Prozent.</t>
+  </si>
+  <si>
+    <t>99,4 Prozent der Stimmbürgerinnen und Stimmbürger von Merzligen haben der Solarinitiative und 63 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 50,2 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 53 Prozent Ja hat sich Mörigen für die Solarinitiative und mit 95,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam der Gegenvorschlag mit 83,2 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Nidau hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 94,5 respektive 77 Prozent.</t>
+  </si>
+  <si>
+    <t>Orpund hat die Solarinitiative mit 55,4 Prozent abgelehnt und den Gegenvorschlag mit 61,9 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>In Port wurden beide Vorlagen abgelehnt. Mit 69,5 Prozent wurde die Solarinitiative und mit 79,1 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 53 Prozent Ja hat sich Safnern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 94,9 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 66,9 Prozent Ja hat sich Scheuren für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 55,4 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Schwadernau hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 65,8 Prozent respektive 65,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 50,7 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>62,8 Prozent der Stimmbürgerinnen und Stimmbürger von Studen BE haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 71,9 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Sutz-Lattrigen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 72,1 respektive 88,4 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 58,4 Prozent Ja hat sich Täuffelen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 69,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 55,4 Prozent Ja hat sich Walperswil für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 50,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>54,3 Prozent der Stimmbürgerinnen und Stimmbürger von Worben haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 62,9 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 53,2 Prozent Ja hat sich Twann-Tüscherz für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 54,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 60,4 Prozent Ja hat sich Därstetten für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 75,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Diemtigen hat die Solarinitiative mit 60,4 Prozent angenommen und den Gegenvorschlag mit 93,6 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Erlenbach im Simmental hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 99,4 respektive 51,2 Prozent.</t>
+  </si>
+  <si>
+    <t>Oberwil im Simmental hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 88 respektive 60,4 Prozent.</t>
+  </si>
+  <si>
+    <t>In Reutigen wurden beide Vorlagen abgelehnt. Mit 92,8 Prozent wurde die Solarinitiative und mit 82 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 65,2 Prozent Ja hat sich Spiez für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 61,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>In Wimmis wurden beide Vorlagen abgelehnt. Mit 52,6 Prozent wurde die Solarinitiative und mit 72 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Mit 95,4 Prozent Ja hat sich Stocken-Höfen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 55,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Guttannen hat die Solarinitiative mit 77,5 Prozent abgelehnt und den Gegenvorschlag mit 62,2 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Hasliberg: 78,5 Prozent haben die Solarinitiative und 81,1 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 68,6 Prozent Ja hat sich Innertkirchen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 95,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>66,4 Prozent der Stimmbürgerinnen und Stimmbürger von Meiringen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 52,4 Pozent ab.</t>
+  </si>
+  <si>
+    <t>83,1 Prozent der Stimmbürgerinnen und Stimmbürger von Schattenhalb haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 88,2 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Boltigen: 57,4 Prozent haben die Solarinitiative und 73,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Lenk hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 91 Prozent respektive 83,2 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 51,6 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 86,4 Prozent Ja hat sich St. Stephan für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 71,2 abgelehnt.</t>
+  </si>
+  <si>
+    <t>69,7 Prozent der Stimmbürgerinnen und Stimmbürger von Zweisimmen haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 57,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>In Gsteig wurden beide Vorlagen abgelehnt. Mit 51 Prozent wurde die Solarinitiative und mit 50,2 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>Lauenen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 64,6 Prozent respektive 63,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 89,5 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 71,2 Prozent Ja hat sich Saanen für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 66,4 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 76,5 Prozent Ja hat sich Guggisberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 79,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Rüschegg hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 60,3 respektive 78,2 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 89,1 Prozent Ja hat sich Schwarzenburg für die Solarinitiative und mit 59,3 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 57 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Belp hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 87,9 respektive 59 Prozent.</t>
+  </si>
+  <si>
+    <t>Burgistein hat die Solarinitiative mit 54 Prozent abgelehnt und den Gegenvorschlag mit 54,6 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Gerzensee hat die Solarinitiative mit 94,3 Prozent angenommen und den Gegenvorschlag mit 62,7 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 81,4 Prozent Ja hat sich Gurzelen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 81,6 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 52,1 Prozent Ja hat sich Jaberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 79,8 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Kaufdorf hat die Solarinitiative mit 99,2 Prozent abgelehnt und den Gegenvorschlag mit 66,9 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>61,2 Prozent der Stimmbürgerinnen und Stimmbürger von Kehrsatz haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 91,4 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Kirchdorf BE: 53,9 Prozent haben die Solarinitiative und 73,2 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 55,9 Prozent Ja hat sich Riggisberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 66,2 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Rüeggisberg hat die Solarinitiative mit 69,6 Prozent angenommen und den Gegenvorschlag mit 57,9 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 80,5 Prozent Ja hat sich Seftigen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 84,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Toffen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 58,9 respektive 94,5 Prozent.</t>
+  </si>
+  <si>
+    <t>Uttigen hat die Solarinitiative mit 98,9 Prozent abgelehnt und den Gegenvorschlag mit 58,6 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Wattenwil hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 52,8 respektive 57,8 Prozent.</t>
+  </si>
+  <si>
+    <t>Wald BE hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 89,6 Prozent respektive 77,4 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 71,1 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Thurnen hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 53 Prozent respektive 60,3 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 79,8 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 59,2 Prozent Ja hat sich Eggiwil für die Solarinitiative und mit 51,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 54,5 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 77,2 Prozent Ja hat sich Langnau im Emmental für die Solarinitiative und mit 62,3 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 56,3 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Lauperswil hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 51,4 Prozent respektive 53 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 82,7 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Röthenbach im Emmental hat die Solarinitiative mit 75,1 Prozent abgelehnt und den Gegenvorschlag mit 65,4 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Rüderswil: 98,6 Prozent haben die Solarinitiative und 59,9 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>66 Prozent der Stimmbürgerinnen und Stimmbürger von Schangnau haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 76,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>66,8 Prozent der Stimmbürgerinnen und Stimmbürger von Signau haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 83,9 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Trub: 72,6 Prozent haben die Solarinitiative und 52,4 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 62 Prozent Ja hat sich Trubschachen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 53,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Amsoldingen hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 70,7 respektive 83,8 Prozent.</t>
+  </si>
+  <si>
+    <t>62,1 Prozent der Stimmbürgerinnen und Stimmbürger von Blumenstein haben der Solarinitiative und 57,7 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 52,7 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>62,2 Prozent der Stimmbürgerinnen und Stimmbürger von Buchholterberg haben der Solarinitiative und 74,1 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 75,1 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Eriz: 59,4 Prozent haben die Solarinitiative und 89,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 53,2 Prozent Ja hat sich Fahrni für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 91,5 abgelehnt.</t>
+  </si>
+  <si>
+    <t>59 Prozent der Stimmbürgerinnen und Stimmbürger von Heiligenschwendi haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 57,3 Pozent ab.</t>
+  </si>
+  <si>
+    <t>78,7 Prozent der Stimmbürgerinnen und Stimmbürger von Heimberg haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 74 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 50,2 Prozent Ja hat sich Hilterfingen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 56,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Homberg: 57,8 Prozent haben die Solarinitiative und 69 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 58,7 Prozent Ja hat sich Horrenbach-Buchen für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 99,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Oberhofen am Thunersee hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 76,1 Prozent respektive 94,9 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 89,3 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>69,5 Prozent der Stimmbürgerinnen und Stimmbürger von Oberlangenegg haben der Solarinitiative und 54,8 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 53,8 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 57,7 Prozent Ja hat sich Pohlern für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 83,4 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Sigriswil hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 50,9 respektive 63,7 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 80,8 Prozent Ja hat sich Steffisburg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 86,7 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Teuffenthal BE hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 67,2 Prozent respektive 62,8 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 67,3 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Thierachern hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 78,9 Prozent respektive 80,7 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 81,6 Prozent für die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>86,3 Prozent der Stimmbürgerinnen und Stimmbürger von Thun haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 52,1 Prozent ab.</t>
+  </si>
+  <si>
+    <t>86,9 Prozent der Stimmbürgerinnen und Stimmbürger von Uebeschi haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 59,5 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 62,3 Prozent Ja hat sich Uetendorf für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 60,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Unterlangenegg: 82,2 Prozent haben die Solarinitiative und 94,8 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>64,3 Prozent der Stimmbürgerinnen und Stimmbürger von Wachseldorn haben der Solarinitiative und 67,6 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 67,9 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Forst-Längenbühl hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 73,2 respektive 88,7 Prozent.</t>
+  </si>
+  <si>
+    <t>Affoltern im Emmental hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 81,7 respektive 91,7 Prozent.</t>
+  </si>
+  <si>
+    <t>Mit 86,6 Prozent Ja hat sich Dürrenroth für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 54,8 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Eriswil hat die Solarinitiative mit 64,4 Prozent angenommen und den Gegenvorschlag mit 63,5 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>68,6 Prozent der Stimmbürgerinnen und Stimmbürger von Huttwil haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 62 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Lützelflüh hat sowohl die Solarinitiative als auch den Gegenvorschlag mit 81 Prozent respektive 94 Prozent angenommen. Bei der Stichfrage entschied sich die Gemeinde mit 65,8 Prozent für den Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 54,3 Prozent Ja hat sich Rüegsau für die Solarinitiative und mit 63,1 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 61,5 Prozent durch.</t>
+  </si>
+  <si>
+    <t>84,5 Prozent der Stimmbürgerinnen und Stimmbürger von Sumiswald haben der Solarinitiative und 60,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 78 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>Mit 61,2 Prozent Ja hat sich Trachselwald für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 88,6 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Mit 63,3 Prozent Ja hat sich Walterswil BE für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 55,3 abgelehnt.</t>
+  </si>
+  <si>
+    <t>52,7 Prozent der Stimmbürgerinnen und Stimmbürger von Wyssachen haben dem Gegenvorschlag zur Solarinitiative zugestimmt. Die Initiative lehnten sie mit 64,9 Pozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 59,5 Prozent Ja hat sich Attiswil für die Solarinitiative und mit 60,7 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 74,2 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Mit 72,7 Prozent Ja hat sich Berken für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 51,7 abgelehnt.</t>
+  </si>
+  <si>
+    <t>82,1 Prozent der Stimmbürgerinnen und Stimmbürger von Bettenhausen haben der Solarinitiative und 63,4 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 98,1 Prozent die Solarinitiative.</t>
+  </si>
+  <si>
+    <t>Mit 93,7 Prozent Ja hat sich Farnern für den Gegenvorschlag zur Solarinitiative ausgesprochen. Die Solarinitiative hat die Gemeinde mit 58,6 abgelehnt.</t>
+  </si>
+  <si>
+    <t>Graben hat die Solarinitiative mit 97 Prozent abgelehnt und den Gegenvorschlag mit 92,9 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Heimenhausen: 64,4 Prozent haben die Solarinitiative und 59,2 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Herzogenbuchsee: 76,6 Prozent haben die Solarinitiative und 98,5 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Inkwil hat die Solarinitiative mit 52,3 Prozent angenommen und den Gegenvorschlag mit 84,2 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Niederbipp hat die Solarinitiative mit 63,2 Prozent angenommen und den Gegenvorschlag mit 57,6 Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Initiative und zum Gegenvorschlag in Niederönz: 68,6 Prozent haben die Solarinitiative und 63,3 Prozent den Gegenvorschlag abgelehnt.</t>
+  </si>
+  <si>
+    <t>Oberbipp hat sowohl die Solarinitiative als auch den Gegenvorschlag abgelehnt, mit 55,5 respektive 52,6 Prozent.</t>
+  </si>
+  <si>
+    <t>Ochlenberg hat die Solarinitiative mit 72,7 Prozent abgelehnt und den Gegenvorschlag mit 92 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>51,9 Prozent der Stimmbürgerinnen und Stimmbürger von Rumisberg haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 78,9 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 72,6 Prozent Ja hat sich Seeberg für die Solarinitiative ausgesprochen. Den Gegenvorschlag lehnten die Stimmberechtigten mit 55,8 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Mit 55,8 Prozent Ja hat sich Thörigen für die Solarinitiative und mit 51,2 Prozent Ja auch für den Gegenvorschlag ausgesprochen. In der Stichfrage kam die Solarinitiative mit 68,3 Prozent durch.</t>
+  </si>
+  <si>
+    <t>Walliswil bei Niederbipp hat die Solarinitiative mit 77,5 Prozent abgelehnt und den Gegenvorschlag mit 52,6 Prozent angenommen.</t>
+  </si>
+  <si>
+    <t>84,2 Prozent der Stimmbürgerinnen und Stimmbürger von Walliswil bei Wangen haben der Solarinitiative und 59 Prozent dem Gegenvorschlag zugestimmt. Durchgesetzt in der Stichfrage hat sich mit 85,9 Prozent der Gegenvorschlag.</t>
+  </si>
+  <si>
+    <t>In Wangen an der Aare wurden beide Vorlagen abgelehnt. Mit 54,8 Prozent wurde die Solarinitiative und mit 79,4 Prozent der Gegenvorschlag verworfen.</t>
+  </si>
+  <si>
+    <t>65,7 Prozent der Stimmbürgerinnen und Stimmbürger von Wiedlisbach haben der Solarinitiative zugestimmt. Den Gegenvorschlag lehnten sie mit 58,5 Prozent ab.</t>
+  </si>
+  <si>
+    <t>Avec 95,2 pour cent de oui, Aarberg se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 70,1 pour cent.</t>
+  </si>
+  <si>
+    <t>74,1 pour cent des citoyens de Bargen (BE) approuvent l’initiative solaire. Ils rejettent le contre-projet avec 62 pour cent.</t>
+  </si>
+  <si>
+    <t>52,4 pour cent des citoyens de Grossaffoltern approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 73,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Kallnach accepte à la fois l’initiative solaire et le contre-projet avec 76,7 pour cent et 73,4 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 62,9 pour cent.</t>
+  </si>
+  <si>
+    <t>98,3 pour cent des citoyens de Kappelen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 52,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Lyss approuve l’initiative solaire avec 97,8 pour cent et rejette le contre-projet avec 60,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Meikirch : 50,3 pour cent rejettent l’initiative solaire et 68,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Radelfingen accepte à la fois l’initiative solaire et le contre-projet avec 79,7 pour cent et 83,5 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 50,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Rapperswil (BE) rejette l’initiative solaire avec 57,1 pour cent et approuve le contre-projet avec 63,4 pour cent.</t>
+  </si>
+  <si>
+    <t>56,6 pour cent des citoyens de Schüpfen approuvent l’initiative solaire, et 96,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 58,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 87,7 pour cent de oui, Seedorf (BE) se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 62 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 85,5 pour cent de oui, Aarwangen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 60 pour cent.</t>
+  </si>
+  <si>
+    <t>Auswil rejette l’initiative solaire avec 55,3 pour cent et approuve le contre-projet avec 96,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 54,4 pour cent de oui, Bannwil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 80,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 76,7 pour cent de oui, Bleienbach se prononce en faveur de l’initiative solaire et, avec 80,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 91,9 pour cent.</t>
+  </si>
+  <si>
+    <t>93,4 pour cent des citoyens de Busswil bei Melchnau approuvent l’initiative solaire, et 74,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 95,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Gondiswil rejette l’initiative solaire avec 77,1 pour cent et approuve le contre-projet avec 83,1 pour cent.</t>
+  </si>
+  <si>
+    <t>73,7 pour cent des citoyens de Langenthal approuvent l’initiative solaire, et 64,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 55,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 97,9 pour cent de oui, Lotzwil se prononce en faveur de l’initiative solaire et, avec 51,4 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 62,4 pour cent.</t>
+  </si>
+  <si>
+    <t>67 pour cent des citoyens de Madiswil approuvent l’initiative solaire. Ils rejettent le contre-projet avec 69 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 82,5 pour cent de oui, Melchnau se prononce en faveur de l’initiative solaire et, avec 71,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 62,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 75,6 pour cent de oui, Oeschenbach se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 54,2 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>À Reisiswil, les deux propositions sont rejetées. L’initiative solaire est refusée avec 61,9 pour cent et le contre-projet avec 50,5 pour cent.</t>
+  </si>
+  <si>
+    <t>À Roggwil (BE), les deux propositions sont rejetées. L’initiative solaire est refusée avec 50,6 pour cent et le contre-projet avec 50,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Rohrbach : 61,4 pour cent rejettent l’initiative solaire et 88,4 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 74,1 pour cent de oui, Rohrbachgraben se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 62,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>64,3 pour cent des citoyens de Rütschelen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 91,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Schwarzhäusern rejette à la fois l’initiative solaire et le contre-projet, avec 66 et 56 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 52,1 pour cent de oui, Thunstetten se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 74 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>58,2 pour cent des citoyens d'Ursenbach approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 88,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Wynau rejette l’initiative solaire avec 83,9 pour cent et approuve le contre-projet avec 85,5 pour cent.</t>
+  </si>
+  <si>
+    <t>88,7 pour cent des citoyens de Berne approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 58 pour cent.</t>
+  </si>
+  <si>
+    <t>Bolligen accepte à la fois l’initiative solaire et le contre-projet avec 56,5 pour cent et 71,1 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 67,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 68,2 pour cent de oui, Bremgarten bei Bern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 82,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 66,7 pour cent de oui, Kirchlindach se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 85,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Köniz approuve l’initiative solaire avec 84,6 pour cent et rejette le contre-projet avec 55,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 76 pour cent de oui, Muri bei Bern se prononce en faveur de l’initiative solaire et, avec 51,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 64,6 pour cent.</t>
+  </si>
+  <si>
+    <t>87,6 pour cent des citoyens d'Oberbalm approuvent l’initiative solaire, et 90,2 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 75,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 52,6 pour cent de oui, Stettlen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 82 pour cent.</t>
+  </si>
+  <si>
+    <t>Vechigen approuve l’initiative solaire avec 62,5 pour cent et rejette le contre-projet avec 78,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 66,5 pour cent de oui, Wohlen bei Bern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 96 pour cent.</t>
+  </si>
+  <si>
+    <t>90,8 pour cent des citoyens de Zollikofen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 67,3 pour cent.</t>
+  </si>
+  <si>
+    <t>76,5 pour cent des citoyens d'Ittigen approuvent l’initiative solaire, et 51,7 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 62,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Ostermundigen approuve l’initiative solaire avec 70 pour cent et rejette le contre-projet avec 55,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Bienne : 57,4 pour cent rejettent l’initiative solaire et 73,3 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Evilard accepte à la fois l’initiative solaire et le contre-projet avec 54,7 pour cent et 53,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 51,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 55,6 pour cent de oui, Arch se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 90,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>50,3 pour cent des citoyens de Büetigen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 94,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Büren an der Aare rejette l’initiative solaire avec 68,6 pour cent et approuve le contre-projet avec 93,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Diessbach bei Büren : 67,6 pour cent rejettent l’initiative solaire et 97,3 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>57 pour cent des citoyens de Dotzigen approuvent l’initiative solaire, et 70,5 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 72,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 85,1 pour cent de oui, Longeau se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 84,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Leuzigen approuve l’initiative solaire avec 87,4 pour cent et rejette le contre-projet avec 85,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Meinisberg rejette à la fois l’initiative solaire et le contre-projet, avec 54 et 68,2 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Oberwil bei Büren accepte à la fois l’initiative solaire et le contre-projet avec 55,1 pour cent et 50,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 73,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Perles rejette l’initiative solaire avec 56,9 pour cent et approuve le contre-projet avec 89,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 86,4 pour cent de oui, Rüti bei Büren se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 53,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Wengi rejette l’initiative solaire avec 71,2 pour cent et approuve le contre-projet avec 81,5 pour cent.</t>
+  </si>
+  <si>
+    <t>53,4 pour cent des citoyens d'Aefligen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 61,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Alchenstorf approuve l’initiative solaire avec 52,2 pour cent et rejette le contre-projet avec 58,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 88,3 pour cent de oui, Bäriswil se prononce en faveur de l’initiative solaire et, avec 69,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 56,1 pour cent.</t>
+  </si>
+  <si>
+    <t>À Berthoud, les deux propositions sont rejetées. L’initiative solaire est refusée avec 85,7 pour cent et le contre-projet avec 63,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Ersigen rejette l’initiative solaire avec 50,8 pour cent et approuve le contre-projet avec 65,1 pour cent.</t>
+  </si>
+  <si>
+    <t>79,4 pour cent des citoyens de Hasle bei Burgdorf approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 70,3 pour cent.</t>
+  </si>
+  <si>
+    <t>69,1 pour cent des citoyens de Heimiswil approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 60,9 pour cent.</t>
+  </si>
+  <si>
+    <t>97,1 pour cent des citoyens de Hindelbank approuvent l’initiative solaire, et 64,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 72,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 90 pour cent de oui, Höchstetten se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 78,3 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 88,4 pour cent de oui, Kernenried se prononce en faveur de l’initiative solaire et, avec 77,8 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 60,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Kirchberg (BE) rejette l’initiative solaire avec 89,7 pour cent et approuve le contre-projet avec 62,1 pour cent.</t>
+  </si>
+  <si>
+    <t>À Koppigen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 62,6 pour cent et le contre-projet avec 91,6 pour cent.</t>
+  </si>
+  <si>
+    <t>75,6 pour cent des citoyens de Krauchthal approuvent l’initiative solaire, et 54,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 61,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 74,7 pour cent de oui, Lyssach se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 78,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Oberburg : 77,5 pour cent rejettent l’initiative solaire et 50,8 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Rüdtligen-Alchenflüh approuve l’initiative solaire avec 54,3 pour cent et rejette le contre-projet avec 85,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Rumendingen rejette à la fois l’initiative solaire et le contre-projet, avec 58,2 et 68,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>66,4 pour cent des citoyens de Rüti bei Lyssach approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 53,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 63,9 pour cent de oui, Willadingen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 51,7 pour cent.</t>
+  </si>
+  <si>
+    <t>73,7 pour cent des citoyens de Wynigen approuvent l’initiative solaire, et 85,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 91,4 pour cent.</t>
+  </si>
+  <si>
+    <t>50,9 pour cent des citoyens de Corgémont approuvent l’initiative solaire, et 81,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 59,5 pour cent.</t>
+  </si>
+  <si>
+    <t>53,8 pour cent des citoyens de Cormoret approuvent l’initiative solaire. Ils rejettent le contre-projet avec 69 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 61,6 pour cent de oui, Cortébert se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 72,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>À Courtelary, les deux propositions sont rejetées. L’initiative solaire est refusée avec 54,3 pour cent et le contre-projet avec 72,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 74,5 pour cent de oui, La Ferrière se prononce en faveur de l’initiative solaire et, avec 61,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 73,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 94,1 pour cent de oui, Mont-Tramelan se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 71 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 96,1 pour cent de oui, Orvin se prononce en faveur de l’initiative solaire et, avec 67,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 70,7 pour cent.</t>
+  </si>
+  <si>
+    <t>70,7 pour cent des citoyens de Renan (BE) approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 97,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 52,6 pour cent de oui, Romont (BE) se prononce en faveur de l’initiative solaire et, avec 96,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 80,4 pour cent.</t>
+  </si>
+  <si>
+    <t>50,5 pour cent des citoyens de Saint-Imier approuvent l’initiative solaire. Ils rejettent le contre-projet avec 76,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 52,5 pour cent de oui, Sonceboz-Sombeval se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 64,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Sonvilier : 59,7 pour cent rejettent l’initiative solaire et 63,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Tramelan : 67,5 pour cent rejettent l’initiative solaire et 67,3 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Villeret approuve l’initiative solaire avec 61,7 pour cent et rejette le contre-projet avec 72,3 pour cent.</t>
+  </si>
+  <si>
+    <t>À Sauge, les deux propositions sont rejetées. L’initiative solaire est refusée avec 55,1 pour cent et le contre-projet avec 63,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 74,4 pour cent de oui, Péry-La Heutte se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 77,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 68,3 pour cent de oui, Brüttelen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 90,7 pour cent de oui, Cerlier se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 64,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Finsterhennen rejette à la fois l’initiative solaire et le contre-projet, avec 57,1 et 82,3 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Gals : 59,6 pour cent rejettent l’initiative solaire et 69,6 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 60,3 pour cent de oui, Champion (Gampelen) se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 65,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Anet rejette l’initiative solaire avec 65,7 pour cent et approuve le contre-projet avec 58,2 pour cent.</t>
+  </si>
+  <si>
+    <t>84,5 pour cent des citoyens de Lüscherz approuvent l’initiative solaire, et 59,9 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 80,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Müntschemier accepte à la fois l’initiative solaire et le contre-projet avec 63,1 pour cent et 70,9 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 56,4 pour cent.</t>
+  </si>
+  <si>
+    <t>À Siselen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 56,1 pour cent et le contre-projet avec 68,1 pour cent.</t>
+  </si>
+  <si>
+    <t>84,2 pour cent des citoyens de Treiten approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 74 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 90,9 pour cent de oui, Tschugg se prononce en faveur de l’initiative solaire et, avec 54,4 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 57,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 71,1 pour cent de oui, Vinelz se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 73,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Bätterkinden rejette l’initiative solaire avec 66,4 pour cent et approuve le contre-projet avec 56,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Fraubrunnen rejette à la fois l’initiative solaire et le contre-projet, avec 52,1 et 65,8 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>54,7 pour cent des citoyens de Jegenstorf approuvent l’initiative solaire, et 63,3 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 51,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Iffwil accepte à la fois l’initiative solaire et le contre-projet avec 50,4 pour cent et 72,6 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 74,7 pour cent.</t>
+  </si>
+  <si>
+    <t>59,8 pour cent des citoyens de Mattstetten approuvent l’initiative solaire, et 52,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 51,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 68,7 pour cent de oui, Moosseedorf se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 75,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Münchenbuchsee rejette à la fois l’initiative solaire et le contre-projet, avec 94,3 et 52,1 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 76,9 pour cent de oui, Urtenen-Schönbühl se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 52,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 80,9 pour cent de oui, Utzenstorf se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 53,9 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>61,1 pour cent des citoyens de Wiggiswil approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 63,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Wiler bei Utzenstorf approuve l’initiative solaire avec 68,4 pour cent et rejette le contre-projet avec 51,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 53,6 pour cent de oui, Zielebach se prononce en faveur de l’initiative solaire et, avec 92,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 50,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Zuzwil (BE) rejette l’initiative solaire avec 52 pour cent et approuve le contre-projet avec 50,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Adelboden rejette l’initiative solaire avec 79,3 pour cent et approuve le contre-projet avec 57,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Aeschi bei Spiez rejette l’initiative solaire avec 67,2 pour cent et approuve le contre-projet avec 52 pour cent.</t>
+  </si>
+  <si>
+    <t>À Frutigen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 93 pour cent et le contre-projet avec 82,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Kandergrund rejette l’initiative solaire avec 76,3 pour cent et approuve le contre-projet avec 57,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Kandersteg accepte à la fois l’initiative solaire et le contre-projet avec 68,1 pour cent et 62,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 88,4 pour cent.</t>
+  </si>
+  <si>
+    <t>60,2 pour cent des citoyens de Krattigen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 55,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Reichenbach im Kandertal rejette l’initiative solaire avec 70,6 pour cent et approuve le contre-projet avec 62,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Beatenberg : 93,1 pour cent rejettent l’initiative solaire et 73,8 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 81,3 pour cent de oui, Bönigen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 52,2 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Brienz (BE) : 83,4 pour cent rejettent l’initiative solaire et 62,7 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Brienzwiler approuve l’initiative solaire avec 65,9 pour cent et rejette le contre-projet avec 83,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 83,9 pour cent de oui, Därligen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 66 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Grindelwald : 73 pour cent rejettent l’initiative solaire et 69,4 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Gsteigwiler rejette l’initiative solaire avec 75,6 pour cent et approuve le contre-projet avec 62,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Gündlischwand rejette l’initiative solaire avec 84,9 pour cent et approuve le contre-projet avec 80,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Habkern rejette l’initiative solaire avec 61,2 pour cent et approuve le contre-projet avec 57 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Hofstetten bei Brienz : 78,9 pour cent rejettent l’initiative solaire et 52 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Interlaken approuve l’initiative solaire avec 56,6 pour cent et rejette le contre-projet avec 91,8 pour cent.</t>
+  </si>
+  <si>
+    <t>62,5 pour cent des citoyens d'Iseltwald approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 76,5 pour cent.</t>
+  </si>
+  <si>
+    <t>62,6 pour cent des citoyens de Lauterbrunnen approuvent l’initiative solaire, et 63 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 57,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Leissigen accepte à la fois l’initiative solaire et le contre-projet avec 70,3 pour cent et 90,2 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 63 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 59,5 pour cent de oui, Lütschental se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 99,3 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Matten bei Interlaken rejette à la fois l’initiative solaire et le contre-projet, avec 53,5 et 67,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>64,4 pour cent des citoyens de Niederried bei Interlaken approuvent l’initiative solaire, et 99,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 60,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 77,7 pour cent de oui, Oberried am Brienzersee se prononce en faveur de l’initiative solaire et, avec 72,6 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 92,5 pour cent.</t>
+  </si>
+  <si>
+    <t>75,8 pour cent des citoyens de Ringgenberg (BE) approuvent l’initiative solaire. Ils rejettent le contre-projet avec 80,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 62,5 pour cent de oui, Saxeten se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 50,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 86,3 pour cent de oui, Schwanden bei Brienz se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 50,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 70,9 pour cent de oui, Unterseen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 54,8 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Wilderswil : 58,7 pour cent rejettent l’initiative solaire et 72,9 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Arni (BE) accepte à la fois l’initiative solaire et le contre-projet avec 93,8 pour cent et 65,9 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 66,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Biglen rejette l’initiative solaire avec 68,7 pour cent et approuve le contre-projet avec 51,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 72 pour cent de oui, Bowil se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 50,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 54,6 pour cent de oui, Brenzikofen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 92,9 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>90,3 pour cent des citoyens de Freimettigen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 95,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 54,1 pour cent de oui, Grosshöchstetten se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 84,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 56,5 pour cent de oui, Häutligen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 54,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>À Herbligen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 95,6 pour cent et le contre-projet avec 66,6 pour cent.</t>
+  </si>
+  <si>
+    <t>54,8 pour cent des citoyens de Kiesen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 53,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 52,3 pour cent de oui, Konolfingen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 53,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Landiswil rejette à la fois l’initiative solaire et le contre-projet, avec 96,6 et 73,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Linden approuve l’initiative solaire avec 71,2 pour cent et rejette le contre-projet avec 87,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Mirchel : 53 pour cent rejettent l’initiative solaire et 76,7 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 56,6 pour cent de oui, Münsingen se prononce en faveur de l’initiative solaire et, avec 53,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 58,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Niederhünigen rejette l’initiative solaire avec 74,5 pour cent et approuve le contre-projet avec 64,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Oberdiessbach accepte à la fois l’initiative solaire et le contre-projet avec 51,4 pour cent et 70,4 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 77,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Oberthal rejette l’initiative solaire avec 65,7 pour cent et approuve le contre-projet avec 60,2 pour cent.</t>
+  </si>
+  <si>
+    <t>50,2 pour cent des citoyens d'Oppligen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 84 pour cent.</t>
+  </si>
+  <si>
+    <t>68,9 pour cent des citoyens de Rubigen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 84,8 pour cent.</t>
+  </si>
+  <si>
+    <t>59,2 pour cent des citoyens de Walkringen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 70,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Worb rejette à la fois l’initiative solaire et le contre-projet, avec 68,5 et 53,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Zäziwil : 52,7 pour cent rejettent l’initiative solaire et 79,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 56,4 pour cent de oui, Allmendingen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 79,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Wichtrach : 53,5 pour cent rejettent l’initiative solaire et 59,4 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 70,7 pour cent de oui, Ferenbalm se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 65 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 76,9 pour cent de oui, Frauenkappelen se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 66 pour cent.</t>
+  </si>
+  <si>
+    <t>À Gurbrü, les deux propositions sont rejetées. L’initiative solaire est refusée avec 89,5 pour cent et le contre-projet avec 68,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 63,8 pour cent de oui, Kriechenwil se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 61,6 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Laupen approuve l’initiative solaire avec 80,9 pour cent et rejette le contre-projet avec 95,5 pour cent.</t>
+  </si>
+  <si>
+    <t>À Mühleberg, les deux propositions sont rejetées. L’initiative solaire est refusée avec 59,9 pour cent et le contre-projet avec 98,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Villars-les-Moines rejette l’initiative solaire avec 56,7 pour cent et approuve le contre-projet avec 55,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Neuenegg rejette à la fois l’initiative solaire et le contre-projet, avec 84,7 et 64,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Wileroltigen rejette à la fois l’initiative solaire et le contre-projet, avec 75,5 et 57,9 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 54,2 pour cent de oui, Belprahon se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 95,3 pour cent.</t>
+  </si>
+  <si>
+    <t>81,8 pour cent des citoyens de Champoz approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 64,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Corcelles (BE) rejette l’initiative solaire avec 55 pour cent et approuve le contre-projet avec 50,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Court approuve l’initiative solaire avec 55,9 pour cent et rejette le contre-projet avec 77,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Crémines rejette à la fois l’initiative solaire et le contre-projet, avec 70,8 et 52,3 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>61,9 pour cent des citoyens d'Eschert approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 50,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Grandval rejette à la fois l’initiative solaire et le contre-projet, avec 56,3 et 65,6 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Loveresse : 57,3 pour cent rejettent l’initiative solaire et 56,2 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>56,4 pour cent des citoyens de Moutier approuvent l’initiative solaire, et 91,7 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 58 pour cent.</t>
+  </si>
+  <si>
+    <t>Perrefitte accepte à la fois l’initiative solaire et le contre-projet avec 67,1 pour cent et 66,8 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 63,4 pour cent.</t>
+  </si>
+  <si>
+    <t>À Reconvilier, les deux propositions sont rejetées. L’initiative solaire est refusée avec 55,7 pour cent et le contre-projet avec 68,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Roches (BE) approuve l’initiative solaire avec 80,7 pour cent et rejette le contre-projet avec 52,1 pour cent.</t>
+  </si>
+  <si>
+    <t>À Saicourt, les deux propositions sont rejetées. L’initiative solaire est refusée avec 90 pour cent et le contre-projet avec 86,7 pour cent.</t>
+  </si>
+  <si>
+    <t>71,6 pour cent des citoyens de Saules (BE) approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 67,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 98,8 pour cent de oui, La Scheulte se prononce en faveur de l’initiative solaire et, avec 64 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 95 pour cent.</t>
+  </si>
+  <si>
+    <t>À Seehof, les deux propositions sont rejetées. L’initiative solaire est refusée avec 63,7 pour cent et le contre-projet avec 81,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 94,3 pour cent de oui, Sorvilier se prononce en faveur de l’initiative solaire et, avec 96 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 58,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 56,1 pour cent de oui, Tavannes se prononce en faveur de l’initiative solaire et, avec 89,9 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 77,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 67 pour cent de oui, Rebévelier se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 98,5 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>51,3 pour cent des citoyens de Petit-Val approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 68 pour cent.</t>
+  </si>
+  <si>
+    <t>58,2 pour cent des citoyens de Valbirse approuvent l’initiative solaire. Ils rejettent le contre-projet avec 57,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 51,5 pour cent de oui, La Neuveville se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 83,3 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Nods rejette à la fois l’initiative solaire et le contre-projet, avec 53,5 et 94,4 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Plateau de Diesse : 73,9 pour cent rejettent l’initiative solaire et 59,9 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 61,6 pour cent de oui, Aegerten se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 73,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Bellmund rejette l’initiative solaire avec 81,8 pour cent et approuve le contre-projet avec 60,6 pour cent.</t>
+  </si>
+  <si>
+    <t>73,2 pour cent des citoyens de Brügg approuvent l’initiative solaire, et 67,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 82 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 70,8 pour cent de oui, Bühl se prononce en faveur de l’initiative solaire et, avec 54,5 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 50,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Epsach rejette l’initiative solaire avec 81,1 pour cent et approuve le contre-projet avec 55 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 88,2 pour cent de oui, Hagneck se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 63,2 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 62,5 pour cent de oui, Hermrigen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 59,8 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 69,5 pour cent de oui, Jens se prononce en faveur de l’initiative solaire et, avec 63 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 63,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Ipsach rejette l’initiative solaire avec 57,5 pour cent et approuve le contre-projet avec 57,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Gléresse rejette à la fois l’initiative solaire et le contre-projet, avec 65,6 et 71,4 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>99,4 pour cent des citoyens de Merzligen approuvent l’initiative solaire, et 63 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 50,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 53 pour cent de oui, Mörigen se prononce en faveur de l’initiative solaire et, avec 95,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 83,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Nidau rejette à la fois l’initiative solaire et le contre-projet, avec 94,5 et 77 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Orpund rejette l’initiative solaire avec 55,4 pour cent et approuve le contre-projet avec 61,9 pour cent.</t>
+  </si>
+  <si>
+    <t>À Port, les deux propositions sont rejetées. L’initiative solaire est refusée avec 69,5 pour cent et le contre-projet avec 79,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 53 pour cent de oui, Safnern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 94,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 66,9 pour cent de oui, Scheuren se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 55,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Schwadernau accepte à la fois l’initiative solaire et le contre-projet avec 65,8 pour cent et 65,9 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 50,7 pour cent.</t>
+  </si>
+  <si>
+    <t>62,8 pour cent des citoyens de Studen (BE) approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 71,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Sutz-Lattrigen rejette à la fois l’initiative solaire et le contre-projet, avec 72,1 et 88,4 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 58,4 pour cent de oui, Täuffelen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 69,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 55,4 pour cent de oui, Walperswil se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 50,2 pour cent.</t>
+  </si>
+  <si>
+    <t>54,3 pour cent des citoyens de Worben approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 62,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 53,2 pour cent de oui, Douanne-Daucher se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 54,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 60,4 pour cent de oui, Därstetten se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 75,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Diemtigen approuve l’initiative solaire avec 60,4 pour cent et rejette le contre-projet avec 93,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Erlenbach im Simmental rejette à la fois l’initiative solaire et le contre-projet, avec 99,4 et 51,2 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Oberwil im Simmental rejette à la fois l’initiative solaire et le contre-projet, avec 88 et 60,4 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>À Reutigen, les deux propositions sont rejetées. L’initiative solaire est refusée avec 92,8 pour cent et le contre-projet avec 82 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 65,2 pour cent de oui, Spiez se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 61,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>À Wimmis, les deux propositions sont rejetées. L’initiative solaire est refusée avec 52,6 pour cent et le contre-projet avec 72 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 95,4 pour cent de oui, Stocken-Höfen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 55,2 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Guttannen rejette l’initiative solaire avec 77,5 pour cent et approuve le contre-projet avec 62,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Hasliberg : 78,5 pour cent rejettent l’initiative solaire et 81,1 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 68,6 pour cent de oui, Innertkirchen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 95,9 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>66,4 pour cent des citoyens de Meiringen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 52,4 pour cent.</t>
+  </si>
+  <si>
+    <t>83,1 pour cent des citoyens de Schattenhalb approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 88,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Boltigen : 57,4 pour cent rejettent l’initiative solaire et 73,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Lenk accepte à la fois l’initiative solaire et le contre-projet avec 91 pour cent et 83,2 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 51,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 86,4 pour cent de oui, Saint-Etienne se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 71,2 pour cent.</t>
+  </si>
+  <si>
+    <t>69,7 pour cent des citoyens de Zweisimmen approuvent l’initiative solaire. Ils rejettent le contre-projet avec 57,4 pour cent.</t>
+  </si>
+  <si>
+    <t>À Gsteig, les deux propositions sont rejetées. L’initiative solaire est refusée avec 51 pour cent et le contre-projet avec 50,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Lauenen accepte à la fois l’initiative solaire et le contre-projet avec 64,6 pour cent et 63,7 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 89,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 71,2 pour cent de oui, Gessenay se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 66,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 76,5 pour cent de oui, Guggisberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 79,9 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Rüschegg rejette à la fois l’initiative solaire et le contre-projet, avec 60,3 et 78,2 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 89,1 pour cent de oui, Schwarzenburg se prononce en faveur de l’initiative solaire et, avec 59,3 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 57 pour cent.</t>
+  </si>
+  <si>
+    <t>Belp rejette à la fois l’initiative solaire et le contre-projet, avec 87,9 et 59 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Burgistein rejette l’initiative solaire avec 54 pour cent et approuve le contre-projet avec 54,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Gerzensee approuve l’initiative solaire avec 94,3 pour cent et rejette le contre-projet avec 62,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 81,4 pour cent de oui, Gurzelen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 81,6 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 52,1 pour cent de oui, Jaberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 79,8 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Kaufdorf rejette l’initiative solaire avec 99,2 pour cent et approuve le contre-projet avec 66,9 pour cent.</t>
+  </si>
+  <si>
+    <t>61,2 pour cent des citoyens de Kehrsatz approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 91,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Kirchdorf (BE) : 53,9 pour cent rejettent l’initiative solaire et 73,2 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 55,9 pour cent de oui, Riggisberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 66,2 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Rüeggisberg approuve l’initiative solaire avec 69,6 pour cent et rejette le contre-projet avec 57,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 80,5 pour cent de oui, Seftigen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 84,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Toffen rejette à la fois l’initiative solaire et le contre-projet, avec 58,9 et 94,5 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Uttigen rejette l’initiative solaire avec 98,9 pour cent et approuve le contre-projet avec 58,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Wattenwil rejette à la fois l’initiative solaire et le contre-projet, avec 52,8 et 57,8 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Wald (BE) accepte à la fois l’initiative solaire et le contre-projet avec 89,6 pour cent et 77,4 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 71,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Thurnen accepte à la fois l’initiative solaire et le contre-projet avec 53 pour cent et 60,3 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 79,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 59,2 pour cent de oui, Eggiwil se prononce en faveur de l’initiative solaire et, avec 51,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 54,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 77,2 pour cent de oui, Langnau im Emmental se prononce en faveur de l’initiative solaire et, avec 62,3 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 56,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Lauperswil accepte à la fois l’initiative solaire et le contre-projet avec 51,4 pour cent et 53 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 82,7 pour cent.</t>
+  </si>
+  <si>
+    <t>Röthenbach im Emmental rejette l’initiative solaire avec 75,1 pour cent et approuve le contre-projet avec 65,4 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Rüderswil : 98,6 pour cent rejettent l’initiative solaire et 59,9 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>66 pour cent des citoyens de Schangnau approuvent l’initiative solaire. Ils rejettent le contre-projet avec 76,5 pour cent.</t>
+  </si>
+  <si>
+    <t>66,8 pour cent des citoyens de Signau approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 83,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Trub : 72,6 pour cent rejettent l’initiative solaire et 52,4 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 62 pour cent de oui, Trubschachen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 53,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Amsoldingen rejette à la fois l’initiative solaire et le contre-projet, avec 70,7 et 83,8 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>62,1 pour cent des citoyens de Blumenstein approuvent l’initiative solaire, et 57,7 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 52,7 pour cent.</t>
+  </si>
+  <si>
+    <t>62,2 pour cent des citoyens de Buchholterberg approuvent l’initiative solaire, et 74,1 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 75,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Eriz : 59,4 pour cent rejettent l’initiative solaire et 89,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 53,2 pour cent de oui, Fahrni se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 91,5 pour cent.</t>
+  </si>
+  <si>
+    <t>59 pour cent des citoyens de Heiligenschwendi approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 57,3 pour cent.</t>
+  </si>
+  <si>
+    <t>78,7 pour cent des citoyens de Heimberg approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 74 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 50,2 pour cent de oui, Hilterfingen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 56,5 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Homberg : 57,8 pour cent rejettent l’initiative solaire et 69 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Avec 58,7 pour cent de oui, Horrenbach-Buchen se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 99,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Oberhofen am Thunersee accepte à la fois l’initiative solaire et le contre-projet avec 76,1 pour cent et 94,9 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 89,3 pour cent.</t>
+  </si>
+  <si>
+    <t>69,5 pour cent des citoyens d'Oberlangenegg approuvent l’initiative solaire, et 54,8 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 53,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 57,7 pour cent de oui, Pohlern se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 83,4 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Sigriswil rejette à la fois l’initiative solaire et le contre-projet, avec 50,9 et 63,7 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 80,8 pour cent de oui, Steffisburg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 86,7 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Teuffenthal (BE) accepte à la fois l’initiative solaire et le contre-projet avec 67,2 pour cent et 62,8 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 67,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Thierachern accepte à la fois l’initiative solaire et le contre-projet avec 78,9 pour cent et 80,7 pour cent respectivement. Lors de la question subsidiaire, la commune opte pour l’initiative solaire avec 81,6 pour cent.</t>
+  </si>
+  <si>
+    <t>86,3 pour cent des citoyens de Thoune approuvent l’initiative solaire. Ils rejettent le contre-projet avec 52,1 pour cent.</t>
+  </si>
+  <si>
+    <t>86,9 pour cent des citoyens d'Uebeschi approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 59,5 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 62,3 pour cent de oui, Uetendorf se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 60,5 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Unterlangenegg : 82,2 pour cent rejettent l’initiative solaire et 94,8 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>64,3 pour cent des citoyens de Wachseldorn approuvent l’initiative solaire, et 67,6 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 67,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Forst-Längenbühl rejette à la fois l’initiative solaire et le contre-projet, avec 73,2 et 88,7 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Affoltern im Emmental rejette à la fois l’initiative solaire et le contre-projet, avec 81,7 et 91,7 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Avec 86,6 pour cent de oui, Dürrenroth se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 54,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Eriswil approuve l’initiative solaire avec 64,4 pour cent et rejette le contre-projet avec 63,5 pour cent.</t>
+  </si>
+  <si>
+    <t>68,6 pour cent des citoyens de Huttwil approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 62 pour cent.</t>
+  </si>
+  <si>
+    <t>Lützelflüh accepte à la fois l’initiative solaire et le contre-projet avec 81 pour cent et 94 pour cent respectivement. Lors de la question subsidiaire, la commune choisit le contre-projet avec 65,8 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 54,3 pour cent de oui, Rüegsau se prononce en faveur de l’initiative solaire et, avec 63,1 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 61,5 pour cent.</t>
+  </si>
+  <si>
+    <t>84,5 pour cent des citoyens de Sumiswald approuvent l’initiative solaire, et 60,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 78 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 61,2 pour cent de oui, Trachselwald se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 88,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 63,3 pour cent de oui, Walterswil (BE) se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 55,3 pour cent.</t>
+  </si>
+  <si>
+    <t>52,7 pour cent des citoyens de Wyssachen approuvent le contre-projet à l’initiative solaire. Ils rejettent l’initiative avec 64,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 59,5 pour cent de oui, Attiswil se prononce en faveur de l’initiative solaire et, avec 60,7 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 74,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 72,7 pour cent de oui, Berken se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 51,7 pour cent.</t>
+  </si>
+  <si>
+    <t>82,1 pour cent des citoyens de Bettenhausen approuvent l’initiative solaire, et 63,4 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 98,1 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 93,7 pour cent de oui, Farnern se prononce en faveur du contre-projet à l’initiative solaire. L’initiative solaire est rejetée avec 58,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Graben rejette l’initiative solaire avec 97 pour cent et approuve le contre-projet avec 92,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Heimenhausen : 64,4 pour cent rejettent l’initiative solaire et 59,2 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Herzogenbuchsee : 76,6 pour cent rejettent l’initiative solaire et 98,5 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Inkwil approuve l’initiative solaire avec 52,3 pour cent et rejette le contre-projet avec 84,2 pour cent.</t>
+  </si>
+  <si>
+    <t>Niederbipp approuve l’initiative solaire avec 63,2 pour cent et rejette le contre-projet avec 57,6 pour cent.</t>
+  </si>
+  <si>
+    <t>Non à l’initiative et au contre-projet à Niederönz : 68,6 pour cent rejettent l’initiative solaire et 63,3 pour cent rejettent le contre-projet.</t>
+  </si>
+  <si>
+    <t>Oberbipp rejette à la fois l’initiative solaire et le contre-projet, avec 55,5 et 52,6 pour cent respectivement.</t>
+  </si>
+  <si>
+    <t>Ochlenberg rejette l’initiative solaire avec 72,7 pour cent et approuve le contre-projet avec 92 pour cent.</t>
+  </si>
+  <si>
+    <t>51,9 pour cent des citoyens de Rumisberg approuvent l’initiative solaire. Ils rejettent le contre-projet avec 78,9 pour cent.</t>
+  </si>
+  <si>
+    <t>Avec 72,6 pour cent de oui, Seeberg se prononce en faveur de l’initiative solaire. Le contre-projet est rejeté par 55,8 pour cent des électeurs.</t>
+  </si>
+  <si>
+    <t>Avec 55,8 pour cent de oui, Thörigen se prononce en faveur de l’initiative solaire et, avec 51,2 pour cent de oui, également pour le contre-projet. Lors de la question subsidiaire, l’initiative solaire l’emporte avec 68,3 pour cent.</t>
+  </si>
+  <si>
+    <t>Walliswil bei Niederbipp rejette l’initiative solaire avec 77,5 pour cent et approuve le contre-projet avec 52,6 pour cent.</t>
+  </si>
+  <si>
+    <t>84,2 pour cent des citoyens de Walliswil bei Wangen approuvent l’initiative solaire, et 59 pour cent soutiennent le contre-projet. Lors de la question subsidiaire, le contre-projet l’emporte avec 85,9 pour cent.</t>
+  </si>
+  <si>
+    <t>À Wangen an der Aare, les deux propositions sont rejetées. L’initiative solaire est refusée avec 54,8 pour cent et le contre-projet avec 79,4 pour cent.</t>
+  </si>
+  <si>
+    <t>65,7 pour cent des citoyens de Wiedlisbach approuvent l’initiative solaire. Ils rejettent le contre-projet avec 58,5 pour cent.</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>342</v>
@@ -3135,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
         <v>343</v>
@@ -3152,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
         <v>344</v>
@@ -3169,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>345</v>
@@ -3186,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
         <v>346</v>
@@ -3237,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>349</v>
@@ -3288,7 +3288,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
         <v>352</v>
@@ -3305,7 +3305,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
         <v>353</v>
@@ -3322,7 +3322,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
         <v>354</v>
@@ -3373,7 +3373,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
         <v>357</v>
@@ -3390,7 +3390,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
         <v>358</v>
@@ -3407,7 +3407,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
         <v>359</v>
@@ -3424,7 +3424,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
         <v>360</v>
@@ -3441,7 +3441,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C23" t="s">
         <v>361</v>
@@ -3458,7 +3458,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C24" t="s">
         <v>362</v>
@@ -3492,7 +3492,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
         <v>364</v>
@@ -3509,7 +3509,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>365</v>
@@ -3526,7 +3526,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
         <v>366</v>
@@ -3543,7 +3543,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C29" t="s">
         <v>367</v>
@@ -3560,7 +3560,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
         <v>368</v>
@@ -3577,7 +3577,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C31" t="s">
         <v>369</v>
@@ -3594,7 +3594,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
         <v>370</v>
@@ -3611,7 +3611,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
         <v>371</v>
@@ -3628,7 +3628,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
         <v>372</v>
@@ -3645,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C35" t="s">
         <v>373</v>
@@ -3662,7 +3662,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C36" t="s">
         <v>374</v>
@@ -3679,7 +3679,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
         <v>375</v>
@@ -3696,7 +3696,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
         <v>376</v>
@@ -3713,7 +3713,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C39" t="s">
         <v>377</v>
@@ -3730,7 +3730,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
         <v>378</v>
@@ -3747,7 +3747,7 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
         <v>379</v>
@@ -3764,7 +3764,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C42" t="s">
         <v>380</v>
@@ -3798,7 +3798,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
         <v>382</v>
@@ -3815,7 +3815,7 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C45" t="s">
         <v>383</v>
@@ -3849,7 +3849,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s">
         <v>385</v>
@@ -3866,7 +3866,7 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
         <v>386</v>
@@ -3883,7 +3883,7 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C49" t="s">
         <v>387</v>
@@ -3900,7 +3900,7 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C50" t="s">
         <v>388</v>
@@ -3917,7 +3917,7 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
         <v>389</v>
@@ -3934,7 +3934,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C52" t="s">
         <v>390</v>
@@ -3951,7 +3951,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C53" t="s">
         <v>391</v>
@@ -3968,7 +3968,7 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C54" t="s">
         <v>392</v>
@@ -3985,7 +3985,7 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s">
         <v>393</v>
@@ -4002,7 +4002,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C56" t="s">
         <v>394</v>
@@ -4036,7 +4036,7 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C58" t="s">
         <v>396</v>
@@ -4053,7 +4053,7 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C59" t="s">
         <v>397</v>
@@ -4070,7 +4070,7 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C60" t="s">
         <v>398</v>
@@ -4087,7 +4087,7 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
         <v>399</v>
@@ -4104,7 +4104,7 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C62" t="s">
         <v>400</v>
@@ -4121,7 +4121,7 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
         <v>401</v>
@@ -4138,7 +4138,7 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
         <v>402</v>
@@ -4155,7 +4155,7 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C65" t="s">
         <v>403</v>
@@ -4189,7 +4189,7 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
         <v>405</v>
@@ -4206,7 +4206,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C68" t="s">
         <v>406</v>
@@ -4223,7 +4223,7 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C69" t="s">
         <v>407</v>
@@ -4240,7 +4240,7 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C70" t="s">
         <v>408</v>
@@ -4257,7 +4257,7 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
         <v>409</v>
@@ -4274,7 +4274,7 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C72" t="s">
         <v>410</v>
@@ -4291,7 +4291,7 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C73" t="s">
         <v>411</v>
@@ -4325,7 +4325,7 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C75" t="s">
         <v>413</v>
@@ -4342,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s">
         <v>414</v>
@@ -4359,7 +4359,7 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C77" t="s">
         <v>415</v>
@@ -4393,7 +4393,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C79" t="s">
         <v>417</v>
@@ -4410,7 +4410,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C80" t="s">
         <v>418</v>
@@ -4427,7 +4427,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s">
         <v>419</v>
@@ -4444,7 +4444,7 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C82" t="s">
         <v>420</v>
@@ -4461,7 +4461,7 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
         <v>421</v>
@@ -4478,7 +4478,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
         <v>422</v>
@@ -4512,7 +4512,7 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C86" t="s">
         <v>424</v>
@@ -4529,7 +4529,7 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C87" t="s">
         <v>425</v>
@@ -4546,7 +4546,7 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C88" t="s">
         <v>426</v>
@@ -4563,7 +4563,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C89" t="s">
         <v>427</v>
@@ -4580,7 +4580,7 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C90" t="s">
         <v>428</v>
@@ -4597,7 +4597,7 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
         <v>429</v>
@@ -4614,7 +4614,7 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C92" t="s">
         <v>430</v>
@@ -4648,7 +4648,7 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C94" t="s">
         <v>432</v>
@@ -4682,7 +4682,7 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
         <v>434</v>
@@ -4733,7 +4733,7 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C99" t="s">
         <v>437</v>
@@ -4750,7 +4750,7 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C100" t="s">
         <v>438</v>
@@ -4767,7 +4767,7 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C101" t="s">
         <v>439</v>
@@ -4784,7 +4784,7 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
         <v>440</v>
@@ -4801,7 +4801,7 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C103" t="s">
         <v>441</v>
@@ -4818,7 +4818,7 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
         <v>442</v>
@@ -4835,7 +4835,7 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C105" t="s">
         <v>443</v>
@@ -4852,7 +4852,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C106" t="s">
         <v>444</v>
@@ -4869,7 +4869,7 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C107" t="s">
         <v>445</v>
@@ -4886,7 +4886,7 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C108" t="s">
         <v>446</v>
@@ -4903,7 +4903,7 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
         <v>447</v>
@@ -4920,7 +4920,7 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C110" t="s">
         <v>448</v>
@@ -4937,7 +4937,7 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C111" t="s">
         <v>449</v>
@@ -4954,7 +4954,7 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
         <v>450</v>
@@ -4971,7 +4971,7 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
         <v>451</v>
@@ -4988,7 +4988,7 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C114" t="s">
         <v>452</v>
@@ -5005,7 +5005,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C115" t="s">
         <v>453</v>
@@ -5022,7 +5022,7 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C116" t="s">
         <v>454</v>
@@ -5039,7 +5039,7 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C117" t="s">
         <v>455</v>
@@ -5056,7 +5056,7 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
         <v>456</v>
@@ -5090,7 +5090,7 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C120" t="s">
         <v>458</v>
@@ -5107,7 +5107,7 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C121" t="s">
         <v>459</v>
@@ -5124,7 +5124,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C122" t="s">
         <v>460</v>
@@ -5158,7 +5158,7 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
         <v>462</v>
@@ -5175,7 +5175,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C125" t="s">
         <v>463</v>
@@ -5192,7 +5192,7 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s">
         <v>464</v>
@@ -5209,7 +5209,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
         <v>465</v>
@@ -5243,7 +5243,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
         <v>467</v>
@@ -5260,7 +5260,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
         <v>468</v>
@@ -5277,7 +5277,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C131" t="s">
         <v>469</v>
@@ -5294,7 +5294,7 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C132" t="s">
         <v>470</v>
@@ -5362,7 +5362,7 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C136" t="s">
         <v>474</v>
@@ -5396,7 +5396,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C138" t="s">
         <v>476</v>
@@ -5413,7 +5413,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
         <v>477</v>
@@ -5447,7 +5447,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C141" t="s">
         <v>479</v>
@@ -5464,7 +5464,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s">
         <v>480</v>
@@ -5498,7 +5498,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C144" t="s">
         <v>482</v>
@@ -5515,7 +5515,7 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s">
         <v>483</v>
@@ -5532,7 +5532,7 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C146" t="s">
         <v>484</v>
@@ -5549,7 +5549,7 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s">
         <v>485</v>
@@ -5566,7 +5566,7 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s">
         <v>486</v>
@@ -5583,7 +5583,7 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C149" t="s">
         <v>487</v>
@@ -5617,7 +5617,7 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C151" t="s">
         <v>489</v>
@@ -5634,7 +5634,7 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C152" t="s">
         <v>490</v>
@@ -5651,7 +5651,7 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C153" t="s">
         <v>491</v>
@@ -5668,7 +5668,7 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C154" t="s">
         <v>492</v>
@@ -5702,7 +5702,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C156" t="s">
         <v>494</v>
@@ -5719,7 +5719,7 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C157" t="s">
         <v>495</v>
@@ -5753,7 +5753,7 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C159" t="s">
         <v>497</v>
@@ -5770,7 +5770,7 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C160" t="s">
         <v>498</v>
@@ -5821,7 +5821,7 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C163" t="s">
         <v>501</v>
@@ -5855,7 +5855,7 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C165" t="s">
         <v>503</v>
@@ -5872,7 +5872,7 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C166" t="s">
         <v>504</v>
@@ -5889,7 +5889,7 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C167" t="s">
         <v>505</v>
@@ -5923,7 +5923,7 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
         <v>507</v>
@@ -5940,7 +5940,7 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
         <v>508</v>
@@ -5957,7 +5957,7 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C171" t="s">
         <v>509</v>
@@ -6008,7 +6008,7 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C174" t="s">
         <v>512</v>
@@ -6025,7 +6025,7 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C175" t="s">
         <v>513</v>
@@ -6076,7 +6076,7 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
         <v>516</v>
@@ -6093,7 +6093,7 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
         <v>517</v>
@@ -6110,7 +6110,7 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C180" t="s">
         <v>518</v>
@@ -6127,7 +6127,7 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C181" t="s">
         <v>519</v>
@@ -6144,7 +6144,7 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C182" t="s">
         <v>520</v>
@@ -6195,7 +6195,7 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C185" t="s">
         <v>523</v>
@@ -6212,7 +6212,7 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C186" t="s">
         <v>524</v>
@@ -6229,7 +6229,7 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C187" t="s">
         <v>525</v>
@@ -6246,7 +6246,7 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C188" t="s">
         <v>526</v>
@@ -6263,7 +6263,7 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C189" t="s">
         <v>527</v>
@@ -6280,7 +6280,7 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C190" t="s">
         <v>528</v>
@@ -6297,7 +6297,7 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C191" t="s">
         <v>529</v>
@@ -6331,7 +6331,7 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C193" t="s">
         <v>531</v>
@@ -6348,7 +6348,7 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C194" t="s">
         <v>532</v>
@@ -6399,7 +6399,7 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C197" t="s">
         <v>535</v>
@@ -6416,7 +6416,7 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C198" t="s">
         <v>536</v>
@@ -6433,7 +6433,7 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C199" t="s">
         <v>537</v>
@@ -6450,7 +6450,7 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C200" t="s">
         <v>538</v>
@@ -6467,7 +6467,7 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C201" t="s">
         <v>539</v>
@@ -6484,7 +6484,7 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C202" t="s">
         <v>540</v>
@@ -6518,7 +6518,7 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C204" t="s">
         <v>542</v>
@@ -6535,7 +6535,7 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C205" t="s">
         <v>543</v>
@@ -6552,7 +6552,7 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C206" t="s">
         <v>544</v>
@@ -6569,7 +6569,7 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C207" t="s">
         <v>545</v>
@@ -6603,7 +6603,7 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C209" t="s">
         <v>547</v>
@@ -6620,7 +6620,7 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C210" t="s">
         <v>548</v>
@@ -6654,7 +6654,7 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C212" t="s">
         <v>550</v>
@@ -6671,7 +6671,7 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
         <v>551</v>
@@ -6705,7 +6705,7 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C215" t="s">
         <v>553</v>
@@ -6722,7 +6722,7 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C216" t="s">
         <v>554</v>
@@ -6739,7 +6739,7 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C217" t="s">
         <v>555</v>
@@ -6773,7 +6773,7 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C219" t="s">
         <v>557</v>
@@ -6790,7 +6790,7 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C220" t="s">
         <v>558</v>
@@ -6807,7 +6807,7 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C221" t="s">
         <v>559</v>
@@ -6824,7 +6824,7 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C222" t="s">
         <v>560</v>
@@ -6841,7 +6841,7 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C223" t="s">
         <v>561</v>
@@ -6875,7 +6875,7 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C225" t="s">
         <v>563</v>
@@ -6909,7 +6909,7 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C227" t="s">
         <v>565</v>
@@ -6926,7 +6926,7 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C228" t="s">
         <v>566</v>
@@ -6960,7 +6960,7 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C230" t="s">
         <v>568</v>
@@ -6977,7 +6977,7 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C231" t="s">
         <v>569</v>
@@ -6994,7 +6994,7 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C232" t="s">
         <v>570</v>
@@ -7011,7 +7011,7 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C233" t="s">
         <v>571</v>
@@ -7045,7 +7045,7 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C235" t="s">
         <v>573</v>
@@ -7062,7 +7062,7 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C236" t="s">
         <v>574</v>
@@ -7079,7 +7079,7 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C237" t="s">
         <v>575</v>
@@ -7096,7 +7096,7 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C238" t="s">
         <v>576</v>
@@ -7113,7 +7113,7 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C239" t="s">
         <v>577</v>
@@ -7147,7 +7147,7 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C241" t="s">
         <v>579</v>
@@ -7181,7 +7181,7 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C243" t="s">
         <v>581</v>
@@ -7198,7 +7198,7 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
         <v>582</v>
@@ -7215,7 +7215,7 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
         <v>583</v>
@@ -7283,7 +7283,7 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C249" t="s">
         <v>587</v>
@@ -7300,7 +7300,7 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C250" t="s">
         <v>588</v>
@@ -7334,7 +7334,7 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C252" t="s">
         <v>590</v>
@@ -7351,7 +7351,7 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C253" t="s">
         <v>591</v>
@@ -7368,7 +7368,7 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C254" t="s">
         <v>592</v>
@@ -7385,7 +7385,7 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C255" t="s">
         <v>593</v>
@@ -7402,7 +7402,7 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C256" t="s">
         <v>594</v>
@@ -7436,7 +7436,7 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C258" t="s">
         <v>596</v>
@@ -7453,7 +7453,7 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C259" t="s">
         <v>597</v>
@@ -7470,7 +7470,7 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C260" t="s">
         <v>598</v>
@@ -7487,7 +7487,7 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C261" t="s">
         <v>599</v>
@@ -7504,7 +7504,7 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C262" t="s">
         <v>600</v>
@@ -7521,7 +7521,7 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C263" t="s">
         <v>601</v>
@@ -7555,7 +7555,7 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C265" t="s">
         <v>603</v>
@@ -7572,7 +7572,7 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C266" t="s">
         <v>604</v>
@@ -7589,7 +7589,7 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C267" t="s">
         <v>605</v>
@@ -7640,7 +7640,7 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
         <v>608</v>
@@ -7657,7 +7657,7 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C271" t="s">
         <v>609</v>
@@ -7691,7 +7691,7 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C273" t="s">
         <v>611</v>
@@ -7708,7 +7708,7 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C274" t="s">
         <v>612</v>
@@ -7725,7 +7725,7 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C275" t="s">
         <v>613</v>
@@ -7759,7 +7759,7 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C277" t="s">
         <v>615</v>
@@ -7776,7 +7776,7 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C278" t="s">
         <v>616</v>
@@ -7793,7 +7793,7 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C279" t="s">
         <v>617</v>
@@ -7810,7 +7810,7 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C280" t="s">
         <v>618</v>
@@ -7844,7 +7844,7 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C282" t="s">
         <v>620</v>
@@ -7861,7 +7861,7 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C283" t="s">
         <v>621</v>
@@ -7878,7 +7878,7 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C284" t="s">
         <v>622</v>
@@ -7912,7 +7912,7 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C286" t="s">
         <v>624</v>
@@ -7929,7 +7929,7 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C287" t="s">
         <v>625</v>
@@ -7946,7 +7946,7 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C288" t="s">
         <v>626</v>
@@ -7963,7 +7963,7 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C289" t="s">
         <v>627</v>
@@ -7997,7 +7997,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C291" t="s">
         <v>629</v>
@@ -8014,7 +8014,7 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C292" t="s">
         <v>630</v>
@@ -8031,7 +8031,7 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C293" t="s">
         <v>631</v>
@@ -8048,7 +8048,7 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C294" t="s">
         <v>632</v>
@@ -8065,7 +8065,7 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C295" t="s">
         <v>633</v>
@@ -8082,7 +8082,7 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C296" t="s">
         <v>634</v>
@@ -8099,7 +8099,7 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C297" t="s">
         <v>635</v>
@@ -8116,7 +8116,7 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C298" t="s">
         <v>636</v>
@@ -8133,7 +8133,7 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C299" t="s">
         <v>637</v>
@@ -8167,7 +8167,7 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C301" t="s">
         <v>639</v>
@@ -8184,7 +8184,7 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C302" t="s">
         <v>640</v>
@@ -8201,7 +8201,7 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C303" t="s">
         <v>641</v>
@@ -8218,7 +8218,7 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C304" t="s">
         <v>642</v>
@@ -8235,7 +8235,7 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C305" t="s">
         <v>643</v>
@@ -8252,7 +8252,7 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C306" t="s">
         <v>644</v>
@@ -8269,7 +8269,7 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C307" t="s">
         <v>645</v>
@@ -8303,7 +8303,7 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C309" t="s">
         <v>647</v>
@@ -8320,7 +8320,7 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C310" t="s">
         <v>648</v>
@@ -8337,7 +8337,7 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C311" t="s">
         <v>649</v>
@@ -8354,7 +8354,7 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C312" t="s">
         <v>650</v>
@@ -8371,7 +8371,7 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C313" t="s">
         <v>651</v>
@@ -8388,7 +8388,7 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C314" t="s">
         <v>652</v>
@@ -8405,7 +8405,7 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C315" t="s">
         <v>653</v>
@@ -8422,7 +8422,7 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C316" t="s">
         <v>654</v>
@@ -8439,7 +8439,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C317" t="s">
         <v>655</v>
@@ -8456,7 +8456,7 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C318" t="s">
         <v>656</v>
@@ -8473,7 +8473,7 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C319" t="s">
         <v>657</v>
@@ -8490,7 +8490,7 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C320" t="s">
         <v>658</v>
@@ -8507,7 +8507,7 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C321" t="s">
         <v>659</v>
@@ -8541,7 +8541,7 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C323" t="s">
         <v>661</v>
@@ -8575,7 +8575,7 @@
         <v>328</v>
       </c>
       <c r="B325" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C325" t="s">
         <v>663</v>
@@ -8592,7 +8592,7 @@
         <v>329</v>
       </c>
       <c r="B326" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C326" t="s">
         <v>664</v>
@@ -8609,7 +8609,7 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C327" t="s">
         <v>665</v>
@@ -8626,7 +8626,7 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C328" t="s">
         <v>666</v>
@@ -8660,7 +8660,7 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C330" t="s">
         <v>668</v>
@@ -8677,7 +8677,7 @@
         <v>334</v>
       </c>
       <c r="B331" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C331" t="s">
         <v>669</v>
